--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_ward34_resonant.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,22 +598,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538990561</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.02813441843736</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.077959469417914</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>28.17453160839172</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-90.69428644466072</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>151.5326674578527</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672226601</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.7311545119290673</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>0.9850786996037839</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>19.99748951274319</v>
+        <v>10.36827052971088</v>
       </c>
       <c r="R3">
-        <v>-96.70515799160647</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>158.4629648494932</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660742431</v>
+        <v>0.9909306888778329</v>
       </c>
       <c r="O4">
-        <v>0.6093826336279414</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9943261548447576</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>17.35880671268257</v>
+        <v>4.40962044340401</v>
       </c>
       <c r="R4">
-        <v>-92.67653586117513</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>162.205196338886</v>
+        <v>175.2518098001974</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="D5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="G5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -917,34 +917,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>0.9713352289688458</v>
+        <v>0.9526279648039776</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289577751</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-5.662241758910221E-10</v>
+        <v>-1.434779169258611E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994265</v>
+        <v>-179.9999999999793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023955133</v>
+        <v>0.9710601884679122</v>
       </c>
       <c r="O6">
-        <v>1.100000023257053</v>
+        <v>0.08399869303568253</v>
       </c>
       <c r="P6">
-        <v>1.100000023472996</v>
+        <v>0.9357190172509382</v>
       </c>
       <c r="Q6">
-        <v>29.99999997956427</v>
+        <v>2.248283018886295</v>
       </c>
       <c r="R6">
-        <v>-90.00000002843602</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>150.0000000070463</v>
+        <v>177.6667554660106</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1284,34 +1284,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.575822689067786</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6184394066324072</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023843703</v>
+        <v>1.097612874371399</v>
       </c>
       <c r="O2">
-        <v>1.10000002383721</v>
+        <v>1.035635625232691</v>
       </c>
       <c r="P2">
-        <v>1.100000023837856</v>
+        <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>29.99999999980454</v>
+        <v>28.13571929983946</v>
       </c>
       <c r="R2">
-        <v>-90.00000000034704</v>
+        <v>-91.691325962866</v>
       </c>
       <c r="S2">
-        <v>150.0000000000143</v>
+        <v>151.0929640471427</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023852572</v>
+        <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>1.100000023819356</v>
+        <v>0.7889914957619026</v>
       </c>
       <c r="P3">
-        <v>1.100000023820757</v>
+        <v>0.9451006847892722</v>
       </c>
       <c r="Q3">
-        <v>29.99999999900674</v>
+        <v>20.24709464694267</v>
       </c>
       <c r="R3">
-        <v>-90.00000000190305</v>
+        <v>-103.06533213792</v>
       </c>
       <c r="S3">
-        <v>150.0000000000429</v>
+        <v>156.0082067402618</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023851363</v>
+        <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>1.100000023805589</v>
+        <v>0.6610662947114375</v>
       </c>
       <c r="P4">
-        <v>1.100000023815354</v>
+        <v>0.9321671592612577</v>
       </c>
       <c r="Q4">
-        <v>29.99999999862454</v>
+        <v>17.32147694956702</v>
       </c>
       <c r="R4">
-        <v>-90.00000000215981</v>
+        <v>-103.5752691854825</v>
       </c>
       <c r="S4">
-        <v>150.0000000002899</v>
+        <v>159.8377717076658</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="D5">
-        <v>3.111269904411659</v>
+        <v>1.628672512805918</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="G5">
-        <v>35.92585033667305</v>
+        <v>18.80629027380482</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1651,34 +1651,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.100000023859658</v>
+        <v>1.059943178513074</v>
       </c>
       <c r="O5">
-        <v>1.100000023755553</v>
+        <v>0.575822689067786</v>
       </c>
       <c r="P5">
-        <v>1.100000023783448</v>
+        <v>0.9259084304691394</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>15.27863230041744</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-104.0410782188621</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>162.4426920027739</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.069377593873312</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.6184394066324072</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9287977660541841</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>16.3092277935017</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-103.7921223584376</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.1358439017222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257942804</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.9364965948332566</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9748156030436067</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>28.05924688048685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-91.44625255184005</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>151.3289570016654</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624874912</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.7097178126774337</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.8774140244573834</v>
+        <v>0.7639425556035887</v>
       </c>
       <c r="Q3">
-        <v>20.55281704144438</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-100.5742849559743</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>156.7312439665724</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644628322</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.5675512578434242</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
-        <v>0.8972376976791485</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>17.58460736508978</v>
+        <v>5.32248358880222</v>
       </c>
       <c r="R4">
-        <v>-94.38698936937116</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>161.6677107617716</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="G5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2018,34 +2018,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.883032007201507</v>
+        <v>0.8660254037886728</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071925261</v>
+        <v>0.8660254037890387</v>
       </c>
       <c r="Q5">
-        <v>-5.053376569759074E-10</v>
+        <v>1.923112272131359E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994874</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000140326</v>
+        <v>0.8935891429579176</v>
       </c>
       <c r="O6">
-        <v>0.9999999997663542</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>0.9999999997575598</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>29.99999998811561</v>
+        <v>2.746170498569063</v>
       </c>
       <c r="R6">
-        <v>-90.00000002483225</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>150.0000000001907</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9959964257942804</v>
+        <v>0.9929355927218108</v>
       </c>
       <c r="O2">
-        <v>0.9364965948332566</v>
+        <v>0.8804584269842806</v>
       </c>
       <c r="P2">
-        <v>0.9748156030436067</v>
+        <v>0.9495696022608427</v>
       </c>
       <c r="Q2">
-        <v>28.05924688048685</v>
+        <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-91.44625255184005</v>
+        <v>-93.16654538439109</v>
       </c>
       <c r="S2">
-        <v>151.3289570016654</v>
+        <v>152.425513590047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999341624874912</v>
+        <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.7097178126774337</v>
+        <v>0.5037062977969645</v>
       </c>
       <c r="P3">
-        <v>0.8774140244573834</v>
+        <v>0.7639425556035887</v>
       </c>
       <c r="Q3">
-        <v>20.55281704144438</v>
+        <v>12.09779838981258</v>
       </c>
       <c r="R3">
-        <v>-100.5742849559743</v>
+        <v>-121.7925562883315</v>
       </c>
       <c r="S3">
-        <v>156.7312439665724</v>
+        <v>163.7271795849222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9389922644628322</v>
+        <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.5675512578434242</v>
+        <v>0.2014825191277486</v>
       </c>
       <c r="P4">
-        <v>0.8972376976791485</v>
+        <v>0.8174473005965646</v>
       </c>
       <c r="Q4">
-        <v>17.58460736508978</v>
+        <v>5.32248358880222</v>
       </c>
       <c r="R4">
-        <v>-94.38698936937116</v>
+        <v>-121.7925562833985</v>
       </c>
       <c r="S4">
-        <v>161.6677107617716</v>
+        <v>173.987338884872</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="D5">
-        <v>25490938360.24592</v>
+        <v>2.606052819855857</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="G5">
-        <v>294344002483.6829</v>
+        <v>30.09210594132324</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2385,34 +2385,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.883032007201507</v>
+        <v>0.8660254037886728</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8830320071925261</v>
+        <v>0.8660254037890387</v>
       </c>
       <c r="Q5">
-        <v>-5.053376569759074E-10</v>
+        <v>1.923112272131359E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994874</v>
+        <v>179.9999999997995</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000140326</v>
+        <v>0.8935891429579176</v>
       </c>
       <c r="O6">
-        <v>0.9999999997663542</v>
+        <v>0.1007412595722653</v>
       </c>
       <c r="P6">
-        <v>0.9999999997575598</v>
+        <v>0.8405788745222766</v>
       </c>
       <c r="Q6">
-        <v>29.99999998811561</v>
+        <v>2.746170498569063</v>
       </c>
       <c r="R6">
-        <v>-90.00000002483225</v>
+        <v>-121.7925562748669</v>
       </c>
       <c r="S6">
-        <v>150.0000000001907</v>
+        <v>177.0804994190644</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.8551123540217649</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.588425524625115</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2752,34 +2752,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4850955530357798</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8588706570454891</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000002324</v>
+        <v>1.000734427743673</v>
       </c>
       <c r="O2">
-        <v>0.999999999996885</v>
+        <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9999999999962661</v>
+        <v>0.9703704959111742</v>
       </c>
       <c r="Q2">
-        <v>29.99999999982096</v>
+        <v>28.0357480611579</v>
       </c>
       <c r="R2">
-        <v>-90.00000000039505</v>
+        <v>-92.10361953460277</v>
       </c>
       <c r="S2">
-        <v>149.9999999999755</v>
+        <v>151.0052246358092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000012009</v>
+        <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.9999999999866982</v>
+        <v>0.7448705945366206</v>
       </c>
       <c r="P3">
-        <v>0.9999999999820391</v>
+        <v>0.8551123540217649</v>
       </c>
       <c r="Q3">
-        <v>29.99999999917301</v>
+        <v>20.67709037248193</v>
       </c>
       <c r="R3">
-        <v>-90.00000000196763</v>
+        <v>-104.1311854330021</v>
       </c>
       <c r="S3">
-        <v>149.9999999998513</v>
+        <v>155.0163347176377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.000000000009397</v>
+        <v>0.9691149430901757</v>
       </c>
       <c r="O4">
-        <v>0.9999999999694131</v>
+        <v>0.588425524625115</v>
       </c>
       <c r="P4">
-        <v>0.9999999999763129</v>
+        <v>0.856702122155124</v>
       </c>
       <c r="Q4">
-        <v>29.99999999867996</v>
+        <v>17.29967291872722</v>
       </c>
       <c r="R4">
-        <v>-90.00000000218134</v>
+        <v>-101.6177951673501</v>
       </c>
       <c r="S4">
-        <v>150.000000000226</v>
+        <v>160.3429768147775</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="D5">
-        <v>2.828427124524274</v>
+        <v>1.372057420289412</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="G5">
-        <v>32.65986323454657</v>
+        <v>15.84315441895431</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3119,34 +3119,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>1.000000000016182</v>
+        <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.9999999999215406</v>
+        <v>0.4850955530357798</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468998</v>
+        <v>0.8618501377741073</v>
       </c>
       <c r="Q5">
-        <v>29.99999999686808</v>
+        <v>14.83811452875882</v>
       </c>
       <c r="R5">
-        <v>-90.00000000458002</v>
+        <v>-99.04485975339256</v>
       </c>
       <c r="S5">
-        <v>150.0000000008328</v>
+        <v>163.8634513655829</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9520111306336771</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8588706570454891</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>16.09072026904601</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-100.4551748721694</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>162.1084886349017</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526480552</v>
+        <v>0.9855289333155797</v>
       </c>
       <c r="O2">
-        <v>1.096025874295463</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.064011720994169</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>30.75110891978736</v>
+        <v>32.33756670924906</v>
       </c>
       <c r="R2">
-        <v>-90.03597890937083</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>148.5090295570264</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873595367208</v>
+        <v>0.5160681836901986</v>
       </c>
       <c r="O3">
-        <v>1.079357280163096</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>0.9301280085823244</v>
+        <v>0.776701630114077</v>
       </c>
       <c r="Q3">
-        <v>33.98935893439618</v>
+        <v>50.26234521814142</v>
       </c>
       <c r="R3">
-        <v>-90.25035334549365</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S3">
-        <v>140.3871932115768</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421988143376</v>
+        <v>0.506240598973688</v>
       </c>
       <c r="O4">
-        <v>1.072860426768126</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>0.850172095436787</v>
+        <v>0.6253440371463844</v>
       </c>
       <c r="Q4">
-        <v>38.74753265801621</v>
+        <v>74.8899778574548</v>
       </c>
       <c r="R4">
-        <v>-90.08395622769365</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>139.3155868668786</v>
+        <v>102.1824476978297</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674767.7657</v>
+        <v>64.08463598483597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3498,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.5832496258786899</v>
+        <v>0.5500000119538261</v>
       </c>
       <c r="O5">
-        <v>1.039230824772722</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>0.5832496257441716</v>
+        <v>0.5500000118969863</v>
       </c>
       <c r="Q5">
-        <v>62.98619604527649</v>
+        <v>89.99999999404237</v>
       </c>
       <c r="R5">
-        <v>-89.99999999827918</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>117.0138039648877</v>
+        <v>90.00000000595057</v>
       </c>
       <c r="T5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023306467</v>
+        <v>0.5235436402866926</v>
       </c>
       <c r="O6">
-        <v>1.100000023762891</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.100000023621701</v>
+        <v>0.5843678239000876</v>
       </c>
       <c r="Q6">
-        <v>29.99999999319366</v>
+        <v>82.75981206765216</v>
       </c>
       <c r="R6">
-        <v>-90.0000000015675</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S6">
-        <v>149.9999999752171</v>
+        <v>96.48316610499727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056549526480552</v>
+        <v>0.9855289333155797</v>
       </c>
       <c r="O2">
-        <v>1.096025874295463</v>
+        <v>1.100000023847349</v>
       </c>
       <c r="P2">
-        <v>1.064011720994169</v>
+        <v>1.010694118906341</v>
       </c>
       <c r="Q2">
-        <v>30.75110891978736</v>
+        <v>32.33756670924906</v>
       </c>
       <c r="R2">
-        <v>-90.03597890937083</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S2">
-        <v>148.5090295570264</v>
+        <v>145.4744899280122</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8698873595367208</v>
+        <v>0.5160681836901986</v>
       </c>
       <c r="O3">
-        <v>1.079357280163096</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P3">
-        <v>0.9301280085823244</v>
+        <v>0.776701630114077</v>
       </c>
       <c r="Q3">
-        <v>33.98935893439618</v>
+        <v>50.26234521814142</v>
       </c>
       <c r="R3">
-        <v>-90.25035334549365</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S3">
-        <v>140.3871932115768</v>
+        <v>115.1352157588075</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8286421988143376</v>
+        <v>0.506240598973688</v>
       </c>
       <c r="O4">
-        <v>1.072860426768126</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P4">
-        <v>0.850172095436787</v>
+        <v>0.6253440371463844</v>
       </c>
       <c r="Q4">
-        <v>38.74753265801621</v>
+        <v>74.8899778574548</v>
       </c>
       <c r="R4">
-        <v>-90.08395622769365</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S4">
-        <v>139.3155868668786</v>
+        <v>102.1824476978297</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514634</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>366666674767.7657</v>
+        <v>64.08463598483597</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3883,37 +3883,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>0.5832496258786899</v>
+        <v>0.5500000119538261</v>
       </c>
       <c r="O5">
-        <v>1.039230824772722</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P5">
-        <v>0.5832496257441716</v>
+        <v>0.5500000118969863</v>
       </c>
       <c r="Q5">
-        <v>62.98619604527649</v>
+        <v>89.99999999404237</v>
       </c>
       <c r="R5">
-        <v>-89.99999999827918</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S5">
-        <v>117.0138039648877</v>
+        <v>90.00000000595057</v>
       </c>
       <c r="T5">
-        <v>31754265507.00517</v>
+        <v>5.549892275514634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023306467</v>
+        <v>0.5235436402866926</v>
       </c>
       <c r="O6">
-        <v>1.100000023762891</v>
+        <v>1.100000023850813</v>
       </c>
       <c r="P6">
-        <v>1.100000023621701</v>
+        <v>0.5843678239000876</v>
       </c>
       <c r="Q6">
-        <v>29.99999999319366</v>
+        <v>82.75981206765216</v>
       </c>
       <c r="R6">
-        <v>-90.0000000015675</v>
+        <v>-89.99999999999621</v>
       </c>
       <c r="S6">
-        <v>149.9999999752171</v>
+        <v>96.48316610499727</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>0.9992901481674377</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637516</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>16.03330896033544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4268,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8648802219738845</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9703007874836254</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.984733957808979</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.02420719461613</v>
+        <v>0.9618627255185428</v>
       </c>
       <c r="G2">
-        <v>-0.735082159943949</v>
+        <v>-1.570796136727088</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7114206315441972</v>
+        <v>0.4199934651527246</v>
       </c>
       <c r="G3">
-        <v>-7.271100281033766</v>
+        <v>-24.90223265368535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5826124702232327</v>
+        <v>0.1679973860556158</v>
       </c>
       <c r="G4">
-        <v>-2.952918836455984</v>
+        <v>-24.90223264882382</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4473,22 +4473,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>31754265512.78223</v>
+        <v>3.699928183877141</v>
       </c>
       <c r="C5">
-        <v>1100000024503.42</v>
+        <v>128.169271976625</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>0.06018306199960888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000003098319</v>
+        <v>73.51070108074346</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023177063</v>
+        <v>0.08399869302364661</v>
       </c>
       <c r="G6">
-        <v>-2.999564986050568E-08</v>
+        <v>-24.90223264041138</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023839535</v>
+        <v>1.069480738650142</v>
       </c>
       <c r="O2">
-        <v>1.100000023841699</v>
+        <v>1.100000023843465</v>
       </c>
       <c r="P2">
-        <v>1.100000023841484</v>
+        <v>1.086199563901171</v>
       </c>
       <c r="Q2">
-        <v>29.9999999999452</v>
+        <v>29.93059260124622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999778</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998688</v>
+        <v>148.5714693547407</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.10000002382996</v>
+        <v>0.9404140809722226</v>
       </c>
       <c r="O3">
-        <v>1.100000023841032</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P3">
-        <v>1.100000023840565</v>
+        <v>1.043645148716251</v>
       </c>
       <c r="Q3">
-        <v>29.99999999968408</v>
+        <v>29.06827467781987</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000618</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S3">
-        <v>149.9999999993322</v>
+        <v>141.9605338400084</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023825514</v>
+        <v>0.8947483932554361</v>
       </c>
       <c r="O4">
-        <v>1.100000023840772</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P4">
-        <v>1.100000023837517</v>
+        <v>0.9992901481674377</v>
       </c>
       <c r="Q4">
-        <v>29.99999999973244</v>
+        <v>30.93784573119521</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999963</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991709</v>
+        <v>140.1740634955099</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637516</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.74179936354211</v>
+        <v>16.03330896033544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4804,37 +4804,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985901650699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033564942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902605282</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.29177203356481</v>
       </c>
       <c r="N5">
-        <v>1.100000023804725</v>
+        <v>0.8648802219738845</v>
       </c>
       <c r="O5">
-        <v>1.100000023839427</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P5">
-        <v>1.100000023830129</v>
+        <v>0.9703007874836254</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>32.29296429119218</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>138.8931587552372</v>
       </c>
       <c r="T5">
-        <v>1.796292516902737</v>
+        <v>1.388525286637515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8797528069046628</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023845168</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.984733957808979</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>31.60390349352726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.5430379956034</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095314194</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>0.9964761462509538</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>0.9719096284686969</v>
+        <v>0.9346253859730062</v>
       </c>
       <c r="Q2">
-        <v>30.31669982299359</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-90.07508069018778</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.1402189964033</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960335693</v>
+        <v>0.4587681827456681</v>
       </c>
       <c r="O3">
-        <v>0.9833239238204809</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>0.8842484437316379</v>
+        <v>0.8186035708257497</v>
       </c>
       <c r="Q3">
-        <v>31.07876275921498</v>
+        <v>36.08047684035249</v>
       </c>
       <c r="R3">
-        <v>-90.41924373727963</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S3">
-        <v>139.60210347151</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156058139</v>
+        <v>0.4341862411763743</v>
       </c>
       <c r="O4">
-        <v>0.9760205715746647</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>0.7858310070375106</v>
+        <v>0.6102254634619548</v>
       </c>
       <c r="Q4">
-        <v>37.72192694132781</v>
+        <v>70.02690230762916</v>
       </c>
       <c r="R4">
-        <v>-90.1407925013125</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
-        <v>139.0387173129351</v>
+        <v>104.0660001426885</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333399.1108</v>
+        <v>52.12105639461716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5189,37 +5189,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.5302269210767818</v>
+        <v>0.500000000017741</v>
       </c>
       <c r="O5">
-        <v>0.9447552747418488</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P5">
-        <v>0.5302269209534013</v>
+        <v>0.4999999999842513</v>
       </c>
       <c r="Q5">
-        <v>62.9861960519223</v>
+        <v>89.99999999497189</v>
       </c>
       <c r="R5">
-        <v>-89.99999999846401</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S5">
-        <v>117.0138039579323</v>
+        <v>90.00000000502069</v>
       </c>
       <c r="T5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999997237957</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>0.9999999999683086</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P6">
-        <v>0.9999999999740588</v>
+        <v>0.5509772745602672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999015789</v>
+        <v>80.72418297166683</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136841</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S6">
-        <v>149.9999999822548</v>
+        <v>97.73474385832507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9577658095314194</v>
+        <v>0.888417666617308</v>
       </c>
       <c r="O2">
-        <v>0.9964761462509538</v>
+        <v>0.999999999996202</v>
       </c>
       <c r="P2">
-        <v>0.9719096284686969</v>
+        <v>0.9346253859730062</v>
       </c>
       <c r="Q2">
-        <v>30.31669982299359</v>
+        <v>31.02345805161477</v>
       </c>
       <c r="R2">
-        <v>-90.07508069018778</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.1402189964033</v>
+        <v>144.5467024754364</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7946738960335693</v>
+        <v>0.4587681827456681</v>
       </c>
       <c r="O3">
-        <v>0.9833239238204809</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P3">
-        <v>0.8842484437316379</v>
+        <v>0.8186035708257497</v>
       </c>
       <c r="Q3">
-        <v>31.07876275921498</v>
+        <v>36.08047684035249</v>
       </c>
       <c r="R3">
-        <v>-90.41924373727963</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S3">
-        <v>139.60210347151</v>
+        <v>116.9319841378731</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7532601156058139</v>
+        <v>0.4341862411763743</v>
       </c>
       <c r="O4">
-        <v>0.9760205715746647</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P4">
-        <v>0.7858310070375106</v>
+        <v>0.6102254634619548</v>
       </c>
       <c r="Q4">
-        <v>37.72192694132781</v>
+        <v>70.02690230762916</v>
       </c>
       <c r="R4">
-        <v>-90.1407925013125</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
-        <v>139.0387173129351</v>
+        <v>104.0660001426885</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981983</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333333333399.1108</v>
+        <v>52.12105639461716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5574,37 +5574,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.5302269210767818</v>
+        <v>0.500000000017741</v>
       </c>
       <c r="O5">
-        <v>0.9447552747418488</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P5">
-        <v>0.5302269209534013</v>
+        <v>0.4999999999842513</v>
       </c>
       <c r="Q5">
-        <v>62.9861960519223</v>
+        <v>89.99999999497189</v>
       </c>
       <c r="R5">
-        <v>-89.99999999846401</v>
+        <v>-89.99999999999642</v>
       </c>
       <c r="S5">
-        <v>117.0138039579323</v>
+        <v>90.00000000502069</v>
       </c>
       <c r="T5">
-        <v>28867513465.17778</v>
+        <v>4.513815890981983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999997237957</v>
+        <v>0.4600513503919653</v>
       </c>
       <c r="O6">
-        <v>0.9999999999683086</v>
+        <v>1.000000000001992</v>
       </c>
       <c r="P6">
-        <v>0.9999999999740588</v>
+        <v>0.5509772745602672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999015789</v>
+        <v>80.72418297166683</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136841</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S6">
-        <v>149.9999999822548</v>
+        <v>97.73474385832507</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.85362188757213</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4129753593324</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.69014273308586</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.36506606732159</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5959,37 +5959,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8444687113479696</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7952361969551069</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9999999999980461</v>
+        <v>0.9698552922568939</v>
       </c>
       <c r="O2">
-        <v>0.999999999999859</v>
+        <v>0.9999999999985624</v>
       </c>
       <c r="P2">
-        <v>1.000000000000065</v>
+        <v>0.987450643959367</v>
       </c>
       <c r="Q2">
-        <v>29.99999999992217</v>
+        <v>29.85362188757213</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999935</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999998641</v>
+        <v>148.4129753593324</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9999999999908952</v>
+        <v>0.8551786895019629</v>
       </c>
       <c r="O3">
-        <v>0.9999999999993319</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P3">
-        <v>1.000000000000885</v>
+        <v>0.9540623163665299</v>
       </c>
       <c r="Q3">
-        <v>29.99999999960045</v>
+        <v>28.69014273308586</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001283</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S3">
-        <v>149.9999999993679</v>
+        <v>141.8418649090393</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9999999999857128</v>
+        <v>0.8096247667889843</v>
       </c>
       <c r="O4">
-        <v>0.9999999999990409</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P4">
-        <v>0.9999999999967408</v>
+        <v>0.8880814833999696</v>
       </c>
       <c r="Q4">
-        <v>29.99999999970457</v>
+        <v>32.36506606732159</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000185</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S4">
-        <v>149.9999999991827</v>
+        <v>140.3569664116717</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.85618083088702</v>
+        <v>13.97165599442909</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6344,37 +6344,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894034215</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879243905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992693</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.39973087924376</v>
       </c>
       <c r="N5">
-        <v>0.9999999999662433</v>
+        <v>0.7812828227929544</v>
       </c>
       <c r="O5">
-        <v>0.9999999999977902</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P5">
-        <v>0.9999999999893373</v>
+        <v>0.8444687113479696</v>
       </c>
       <c r="Q5">
-        <v>29.99999999951446</v>
+        <v>35.04587756095405</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999645</v>
       </c>
       <c r="S5">
-        <v>149.9999999981864</v>
+        <v>139.2386166539254</v>
       </c>
       <c r="T5">
-        <v>1.632993161790133</v>
+        <v>1.209980902411273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.7952361969551069</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.000000000000097</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8662338689117168</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>33.68158819279844</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>139.8118678584347</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.064708527693596</v>
+        <v>0.9618627255527031</v>
       </c>
       <c r="O2">
-        <v>1.024081333171092</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.057104282119163</v>
+        <v>0.9618627255389796</v>
       </c>
       <c r="Q2">
-        <v>28.49381784295042</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-90.73639486385798</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>150.7786273658409</v>
+        <v>148.4292038647901</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060120117456</v>
+        <v>0.4199934652969321</v>
       </c>
       <c r="O3">
-        <v>0.7107893287558512</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>0.8728137018025388</v>
+        <v>0.4199934651742211</v>
       </c>
       <c r="Q3">
-        <v>20.34129284654311</v>
+        <v>5.097767356433506</v>
       </c>
       <c r="R3">
-        <v>-97.28975849946467</v>
+        <v>-114.9022326522465</v>
       </c>
       <c r="S3">
-        <v>154.1637402961132</v>
+        <v>125.0977673680541</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540958203928</v>
+        <v>0.1679973862502682</v>
       </c>
       <c r="O4">
-        <v>0.5817547040079322</v>
+        <v>0.167997386065672</v>
       </c>
       <c r="P4">
-        <v>0.8331218487630433</v>
+        <v>0.1679973861131193</v>
       </c>
       <c r="Q4">
-        <v>19.2027816294384</v>
+        <v>5.097767373029851</v>
       </c>
       <c r="R4">
-        <v>-92.96219773862232</v>
+        <v>-114.9022326446281</v>
       </c>
       <c r="S4">
-        <v>158.9109756964735</v>
+        <v>125.0977674187158</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840978.49025</v>
+        <v>6.408463597548501</v>
       </c>
       <c r="D5">
-        <v>32377840985.45134</v>
+        <v>6.408463597915738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104094.2049</v>
+        <v>73.9985636627309</v>
       </c>
       <c r="G5">
-        <v>373867104174.5847</v>
+        <v>73.99856366697139</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -6729,37 +6729,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>0.5945778889303521</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0621119681450291</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.594577888936161</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034786040905</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000343717</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.005965196368</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840973.13361</v>
+        <v>11.09978454910767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023661984</v>
+        <v>0.08399869323511394</v>
       </c>
       <c r="O6">
-        <v>1.100000023196597</v>
+        <v>0.08399869303403772</v>
       </c>
       <c r="P6">
-        <v>1.100000023340558</v>
+        <v>0.08399869309315236</v>
       </c>
       <c r="Q6">
-        <v>29.99999997529002</v>
+        <v>5.097767401000481</v>
       </c>
       <c r="R6">
-        <v>-90.00000003004187</v>
+        <v>-114.9022326316208</v>
       </c>
       <c r="S6">
-        <v>149.9999999936098</v>
+        <v>125.097767503462</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.064708527693596</v>
+        <v>0.9618627255527031</v>
       </c>
       <c r="O2">
-        <v>1.024081333171092</v>
+        <v>0.9618627255242649</v>
       </c>
       <c r="P2">
-        <v>1.057104282119163</v>
+        <v>0.9618627255389796</v>
       </c>
       <c r="Q2">
-        <v>28.49381784295042</v>
+        <v>28.42920386331091</v>
       </c>
       <c r="R2">
-        <v>-90.73639486385798</v>
+        <v>-91.57079613665013</v>
       </c>
       <c r="S2">
-        <v>150.7786273658409</v>
+        <v>148.4292038647901</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9340060120117456</v>
+        <v>0.4199934652969321</v>
       </c>
       <c r="O3">
-        <v>0.7107893287558512</v>
+        <v>0.4199934651617762</v>
       </c>
       <c r="P3">
-        <v>0.8728137018025388</v>
+        <v>0.4199934651742211</v>
       </c>
       <c r="Q3">
-        <v>20.34129284654311</v>
+        <v>5.097767356433506</v>
       </c>
       <c r="R3">
-        <v>-97.28975849946467</v>
+        <v>-114.9022326522465</v>
       </c>
       <c r="S3">
-        <v>154.1637402961132</v>
+        <v>125.0977673680541</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8549540958203928</v>
+        <v>0.1679973862502682</v>
       </c>
       <c r="O4">
-        <v>0.5817547040079322</v>
+        <v>0.167997386065672</v>
       </c>
       <c r="P4">
-        <v>0.8331218487630433</v>
+        <v>0.1679973861131193</v>
       </c>
       <c r="Q4">
-        <v>19.2027816294384</v>
+        <v>5.097767373029851</v>
       </c>
       <c r="R4">
-        <v>-92.96219773862232</v>
+        <v>-114.9022326446281</v>
       </c>
       <c r="S4">
-        <v>158.9109756964735</v>
+        <v>125.0977674187158</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,19 +7093,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>32377840978.49025</v>
+        <v>6.408463597548501</v>
       </c>
       <c r="D5">
-        <v>32377840985.45134</v>
+        <v>6.408463597915738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>373867104094.2049</v>
+        <v>73.9985636627309</v>
       </c>
       <c r="G5">
-        <v>373867104174.5847</v>
+        <v>73.99856366697139</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7114,37 +7114,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>0.5945778889303521</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0621119681450291</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.594577888936161</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034786040905</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000343717</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.005965196368</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>32377840973.13361</v>
+        <v>11.09978454910767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023661984</v>
+        <v>0.08399869323511394</v>
       </c>
       <c r="O6">
-        <v>1.100000023196597</v>
+        <v>0.08399869303403772</v>
       </c>
       <c r="P6">
-        <v>1.100000023340558</v>
+        <v>0.08399869309315236</v>
       </c>
       <c r="Q6">
-        <v>29.99999997529002</v>
+        <v>5.097767401000481</v>
       </c>
       <c r="R6">
-        <v>-90.00000003004187</v>
+        <v>-114.9022326316208</v>
       </c>
       <c r="S6">
-        <v>149.9999999936098</v>
+        <v>125.097767503462</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.026319339815347</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.9019226052886102</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9562158676264629</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.29958416318838</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>20.80236550736362</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.97748982579562</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7499,37 +7499,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7610792363898123</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8821046938247632</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.22644568570351</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9625161923336193</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.7892411664004486</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>20.27026305687973</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-99.09752580832856</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841539</v>
+        <v>1.083139218667921</v>
       </c>
       <c r="O2">
-        <v>1.100000023839375</v>
+        <v>1.059278148953053</v>
       </c>
       <c r="P2">
-        <v>1.10000002383959</v>
+        <v>1.072307930635247</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987415</v>
+        <v>28.66105174539966</v>
       </c>
       <c r="R2">
-        <v>-90.00000000017313</v>
+        <v>-91.28334085733744</v>
       </c>
       <c r="S2">
-        <v>149.9999999999409</v>
+        <v>149.7927530229886</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023840851</v>
+        <v>1.026319339815347</v>
       </c>
       <c r="O3">
-        <v>1.100000023829779</v>
+        <v>0.9019226052886102</v>
       </c>
       <c r="P3">
-        <v>1.100000023830246</v>
+        <v>0.9562158676264629</v>
       </c>
       <c r="Q3">
-        <v>29.99999999934048</v>
+        <v>22.29958416318838</v>
       </c>
       <c r="R3">
-        <v>-90.00000000095955</v>
+        <v>-98.66237050193624</v>
       </c>
       <c r="S3">
-        <v>149.9999999996826</v>
+        <v>148.3187487787069</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023837893</v>
+        <v>0.9783482512761524</v>
       </c>
       <c r="O4">
-        <v>1.100000023822635</v>
+        <v>0.8174068168697867</v>
       </c>
       <c r="P4">
-        <v>1.10000002382589</v>
+        <v>0.9115583371919599</v>
       </c>
       <c r="Q4">
-        <v>29.99999999917684</v>
+        <v>20.80236550736362</v>
       </c>
       <c r="R4">
-        <v>-90.00000000108136</v>
+        <v>-98.97748982579562</v>
       </c>
       <c r="S4">
-        <v>149.9999999997287</v>
+        <v>149.6977460344275</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,19 +7863,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.79629251690412</v>
+        <v>1.389842862273669</v>
       </c>
       <c r="D5">
-        <v>1.79629251690412</v>
+        <v>1.271334315222708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.74179936355809</v>
+        <v>16.04852301329966</v>
       </c>
       <c r="G5">
-        <v>20.74179936355809</v>
+        <v>14.68010418247678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7884,37 +7884,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>1.100000023830971</v>
+        <v>0.9467699198774839</v>
       </c>
       <c r="O5">
-        <v>1.100000023796269</v>
+        <v>0.7610792363898123</v>
       </c>
       <c r="P5">
-        <v>1.100000023805567</v>
+        <v>0.8821046938247632</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>19.72041245559807</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-99.22644568570351</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>150.6942704007944</v>
       </c>
       <c r="T5">
-        <v>1.796292516904121</v>
+        <v>1.569068326504255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9625161923336193</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.7892411664004486</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8967976130201459</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>20.27026305687973</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-99.09752580832856</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>150.1878260752178</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842979028</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.9329299242030992</v>
+        <v>0.8804584269810506</v>
       </c>
       <c r="P2">
-        <v>0.958183670813925</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>28.13219420452471</v>
+        <v>26.83345461615414</v>
       </c>
       <c r="R2">
-        <v>-91.53377747952618</v>
+        <v>-93.16654538443235</v>
       </c>
       <c r="S2">
-        <v>150.3503418408907</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386626038789</v>
+        <v>0.503706297868402</v>
       </c>
       <c r="O3">
-        <v>0.6943631325660475</v>
+        <v>0.5037062978020516</v>
       </c>
       <c r="P3">
-        <v>0.7965930094100105</v>
+        <v>0.5037062977551596</v>
       </c>
       <c r="Q3">
-        <v>19.60327144784376</v>
+        <v>-1.792556277737473</v>
       </c>
       <c r="R3">
-        <v>-101.4293415372102</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>151.2800244225508</v>
+        <v>118.2074437235356</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621490199</v>
+        <v>0.2014825192544585</v>
       </c>
       <c r="O4">
-        <v>0.5433154598061516</v>
+        <v>0.2014825191336002</v>
       </c>
       <c r="P4">
-        <v>0.75709934971461</v>
+        <v>0.2014825191159128</v>
       </c>
       <c r="Q4">
-        <v>18.94495363663157</v>
+        <v>-1.792556257958278</v>
       </c>
       <c r="R4">
-        <v>-94.84247770541877</v>
+        <v>-121.792556283604</v>
       </c>
       <c r="S4">
-        <v>157.8990167159382</v>
+        <v>118.2074437589756</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400243.84056</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>29434400250.2357</v>
+        <v>5.212105639194835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178084.3307</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>339879178158.1755</v>
+        <v>60.18421187667809</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8269,37 +8269,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.5405253417861138</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542438740891</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417926081</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034787761801</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000219885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651946641</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400243.04831</v>
+        <v>9.027631780706923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999916596</v>
+        <v>0.1007412597173991</v>
       </c>
       <c r="O6">
-        <v>0.9999999997423451</v>
+        <v>0.1007412595783718</v>
       </c>
       <c r="P6">
-        <v>0.999999999736482</v>
+        <v>0.100741259570419</v>
       </c>
       <c r="Q6">
-        <v>29.99999998239566</v>
+        <v>-1.792556224682957</v>
       </c>
       <c r="R6">
-        <v>-90.00000002623462</v>
+        <v>-121.7925562755524</v>
       </c>
       <c r="S6">
-        <v>149.9999999904441</v>
+        <v>118.2074438183522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8474,22 +8474,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9725969842979028</v>
+        <v>0.8804584270027439</v>
       </c>
       <c r="O2">
-        <v>0.9329299242030992</v>
+        <v>0.8804584269810506</v>
       </c>
       <c r="P2">
-        <v>0.958183670813925</v>
+        <v>0.8804584269840272</v>
       </c>
       <c r="Q2">
-        <v>28.13219420452471</v>
+        <v>26.83345461615414</v>
       </c>
       <c r="R2">
-        <v>-91.53377747952618</v>
+        <v>-93.16654538443235</v>
       </c>
       <c r="S2">
-        <v>150.3503418408907</v>
+        <v>146.8334546170761</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8876386626038789</v>
+        <v>0.503706297868402</v>
       </c>
       <c r="O3">
-        <v>0.6943631325660475</v>
+        <v>0.5037062978020516</v>
       </c>
       <c r="P3">
-        <v>0.7965930094100105</v>
+        <v>0.5037062977551596</v>
       </c>
       <c r="Q3">
-        <v>19.60327144784376</v>
+        <v>-1.792556277737473</v>
       </c>
       <c r="R3">
-        <v>-101.4293415372102</v>
+        <v>-121.792556288249</v>
       </c>
       <c r="S3">
-        <v>151.2800244225508</v>
+        <v>118.2074437235356</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7901350621490199</v>
+        <v>0.2014825192544585</v>
       </c>
       <c r="O4">
-        <v>0.5433154598061516</v>
+        <v>0.2014825191336002</v>
       </c>
       <c r="P4">
-        <v>0.75709934971461</v>
+        <v>0.2014825191159128</v>
       </c>
       <c r="Q4">
-        <v>18.94495363663157</v>
+        <v>-1.792556257958278</v>
       </c>
       <c r="R4">
-        <v>-94.84247770541877</v>
+        <v>-121.792556283604</v>
       </c>
       <c r="S4">
-        <v>157.8990167159382</v>
+        <v>118.2074437589756</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29434400243.84056</v>
+        <v>5.212105638758383</v>
       </c>
       <c r="D5">
-        <v>29434400250.2357</v>
+        <v>5.212105639194835</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>339879178084.3307</v>
+        <v>60.18421187163838</v>
       </c>
       <c r="G5">
-        <v>339879178158.1755</v>
+        <v>60.18421187667809</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -8805,37 +8805,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.5405253417861138</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05646542438740891</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5405253417926081</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-2.994034787761801</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>90.00000000219885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-177.0059651946641</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>29434400243.04831</v>
+        <v>9.027631780706923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999916596</v>
+        <v>0.1007412597173991</v>
       </c>
       <c r="O6">
-        <v>0.9999999997423451</v>
+        <v>0.1007412595783718</v>
       </c>
       <c r="P6">
-        <v>0.999999999736482</v>
+        <v>0.100741259570419</v>
       </c>
       <c r="Q6">
-        <v>29.99999998239566</v>
+        <v>-1.792556224682957</v>
       </c>
       <c r="R6">
-        <v>-90.00000002623462</v>
+        <v>-121.7925562755524</v>
       </c>
       <c r="S6">
-        <v>149.9999999904441</v>
+        <v>118.2074438183522</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9843405649673949</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.972452191228846</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8688572961474457</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-99.17392234672846</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7246674127323594</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8201110567856947</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.7228482726653</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9190,37 +9190,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.6550793552710618</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7889349581209016</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8474804505269403</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6898212699575315</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8043804515477034</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.000000000000114</v>
+        <v>0.9843405649673949</v>
       </c>
       <c r="O2">
-        <v>0.9999999999983011</v>
+        <v>0.9615729355894181</v>
       </c>
       <c r="P2">
-        <v>0.9999999999980949</v>
+        <v>0.972452191228846</v>
       </c>
       <c r="Q2">
-        <v>29.99999999987005</v>
+        <v>28.53657515969511</v>
       </c>
       <c r="R2">
-        <v>-90.00000000019871</v>
+        <v>-91.51132863889205</v>
       </c>
       <c r="S2">
-        <v>149.9999999999183</v>
+        <v>149.6747068351959</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000000000001116</v>
+        <v>0.9375391802455808</v>
       </c>
       <c r="O3">
-        <v>0.9999999999926794</v>
+        <v>0.8296997009410964</v>
       </c>
       <c r="P3">
-        <v>0.9999999999911265</v>
+        <v>0.8688572961474457</v>
       </c>
       <c r="Q3">
-        <v>29.99999999937845</v>
+        <v>22.30837627642724</v>
       </c>
       <c r="R3">
-        <v>-90.00000000099853</v>
+        <v>-99.17392234672846</v>
       </c>
       <c r="S3">
-        <v>149.9999999996013</v>
+        <v>147.7835014710103</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.999999999997073</v>
+        <v>0.8699546445373587</v>
       </c>
       <c r="O4">
-        <v>0.9999999999837448</v>
+        <v>0.7246674127323594</v>
       </c>
       <c r="P4">
-        <v>0.9999999999860451</v>
+        <v>0.8201110567856947</v>
       </c>
       <c r="Q4">
-        <v>29.9999999991895</v>
+        <v>21.39807920673417</v>
       </c>
       <c r="R4">
-        <v>-90.00000000109435</v>
+        <v>-97.50360857595901</v>
       </c>
       <c r="S4">
-        <v>149.9999999997016</v>
+        <v>150.7228482726653</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,19 +9554,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.63299316179139</v>
+        <v>1.191529891745418</v>
       </c>
       <c r="D5">
-        <v>1.63299316179139</v>
+        <v>1.124439110801036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.85618083090155</v>
+        <v>13.75860207493405</v>
       </c>
       <c r="G5">
-        <v>18.85618083090155</v>
+        <v>12.98390446616643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -9575,37 +9575,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.779351894005638</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.399730879266564</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.779351893992582</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.399730879243827</v>
       </c>
       <c r="N5">
-        <v>0.9999999999901024</v>
+        <v>0.8250369273897885</v>
       </c>
       <c r="O5">
-        <v>0.9999999999585553</v>
+        <v>0.6550793552710618</v>
       </c>
       <c r="P5">
-        <v>0.9999999999670084</v>
+        <v>0.7889349581209016</v>
       </c>
       <c r="Q5">
-        <v>29.99999999819127</v>
+        <v>20.70847462310719</v>
       </c>
       <c r="R5">
-        <v>-90.00000000228817</v>
+        <v>-96.09329345653627</v>
       </c>
       <c r="S5">
-        <v>149.9999999995096</v>
+        <v>152.8804881504156</v>
       </c>
       <c r="T5">
-        <v>1.63299316179139</v>
+        <v>1.391108155414494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8474804505269403</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6898212699575315</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8043804515477034</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>21.06241437571038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-96.83401769911636</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>151.7807630477585</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.100000023839321</v>
+        <v>1.059278148952853</v>
       </c>
       <c r="G2">
-        <v>-1.772645958957043E-10</v>
+        <v>-1.28334085734448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100000023829501</v>
+        <v>0.9019226052870457</v>
       </c>
       <c r="G3">
-        <v>-9.665004992401786E-10</v>
+        <v>-8.662370501976005</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.10000002382227</v>
+        <v>0.8174068168680616</v>
       </c>
       <c r="G4">
-        <v>-1.086110559807603E-09</v>
+        <v>-8.977489825842483</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9780,22 +9780,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.796292516902737</v>
+        <v>1.242837188657538</v>
       </c>
       <c r="C5">
-        <v>62.22539809062631</v>
+        <v>43.05314312581844</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9743985902319453</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.291772033564943</v>
       </c>
       <c r="F5">
-        <v>1.100000023795451</v>
+        <v>0.7610792363879806</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>45.00000000014467</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023841858</v>
+        <v>0.7892411663986704</v>
       </c>
       <c r="G6">
-        <v>-2.444942376576212E-18</v>
+        <v>-9.097525808378172</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9931,22 +9931,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9330406553689347</v>
+        <v>0.8804584269747983</v>
       </c>
       <c r="G2">
-        <v>-1.531049299443188</v>
+        <v>-3.166545384462176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.694837600389864</v>
+        <v>0.5037062977927165</v>
       </c>
       <c r="G3">
-        <v>-11.40221983455471</v>
+        <v>-31.7925562889502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5440675710064606</v>
+        <v>0.201482519123995</v>
       </c>
       <c r="G4">
-        <v>-4.827721973727448</v>
+        <v>-31.79255628536537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10082,22 +10082,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>28867513467.78561</v>
+        <v>3.009210594127294</v>
       </c>
       <c r="C5">
-        <v>1000000000287.67</v>
+        <v>104.24211279406</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.05471187337735661</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-90.00000002763498</v>
+        <v>62.37332949917566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999997343961</v>
+        <v>0.1007412595686766</v>
       </c>
       <c r="G6">
-        <v>-2.619471171289957E-08</v>
+        <v>-31.79255627908081</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10233,22 +10233,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999982537</v>
+        <v>0.9615729355862579</v>
       </c>
       <c r="G2">
-        <v>-2.033572542620495E-10</v>
+        <v>-1.511328638902339</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999999999924546</v>
+        <v>0.8296997009372349</v>
       </c>
       <c r="G3">
-        <v>-1.007720212716575E-09</v>
+        <v>-9.173922346783923</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.999999999983422</v>
+        <v>0.7246674127284862</v>
       </c>
       <c r="G4">
-        <v>-1.099850464296024E-09</v>
+        <v>-7.503608576021943</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10384,22 +10384,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.632993161790133</v>
+        <v>1.069740107624362</v>
       </c>
       <c r="C5">
-        <v>56.56854249266106</v>
+        <v>37.05688434599187</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.779351894012302</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.399730879243898</v>
       </c>
       <c r="F5">
-        <v>0.9999999999578115</v>
+        <v>0.6550793552671753</v>
       </c>
       <c r="G5">
-        <v>44.99999999999817</v>
+        <v>44.99999999987111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6898212699536523</v>
       </c>
       <c r="G6">
-        <v>-1.594992525143076E-18</v>
+        <v>-6.834017699181651</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089127538990561</v>
+        <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>1.02813441843736</v>
+        <v>0.9618627255197193</v>
       </c>
       <c r="P2">
-        <v>1.077959469417914</v>
+        <v>1.05530912685228</v>
       </c>
       <c r="Q2">
-        <v>28.17453160839172</v>
+        <v>26.46268431694228</v>
       </c>
       <c r="R2">
-        <v>-90.69428644466072</v>
+        <v>-91.57079613676154</v>
       </c>
       <c r="S2">
-        <v>151.5326674578527</v>
+        <v>152.8993938557652</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.065938672226601</v>
+        <v>1.058332742123209</v>
       </c>
       <c r="O3">
-        <v>0.7311545119290673</v>
+        <v>0.4199934651621022</v>
       </c>
       <c r="P3">
-        <v>0.9850786996037839</v>
+        <v>0.8849458407134004</v>
       </c>
       <c r="Q3">
-        <v>19.99748951274319</v>
+        <v>10.36827052971088</v>
       </c>
       <c r="R3">
-        <v>-96.70515799160647</v>
+        <v>-114.9022326535645</v>
       </c>
       <c r="S3">
-        <v>158.4629648494932</v>
+        <v>167.570584904511</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.021746660742431</v>
+        <v>0.9909306888778329</v>
       </c>
       <c r="O4">
-        <v>0.6093826336279414</v>
+        <v>0.1679973860669872</v>
       </c>
       <c r="P4">
-        <v>0.9943261548447576</v>
+        <v>0.9204173017492231</v>
       </c>
       <c r="Q4">
-        <v>17.35880671268257</v>
+        <v>4.40962044340401</v>
       </c>
       <c r="R4">
-        <v>-92.67653586117513</v>
+        <v>-114.9022326490688</v>
       </c>
       <c r="S4">
-        <v>162.205196338886</v>
+        <v>175.2518098001974</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,19 +10682,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="D5">
-        <v>28040032812.63088</v>
+        <v>3.204231799390413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="G5">
-        <v>323778409849.1676</v>
+        <v>36.99928183848028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -10703,34 +10703,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9743985902536769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.291772033553277</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9743985902604307</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.291772033564869</v>
       </c>
       <c r="N5">
-        <v>0.9713352289688458</v>
+        <v>0.9526279648039776</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9713352289577751</v>
+        <v>0.9526279648057683</v>
       </c>
       <c r="Q5">
-        <v>-5.662241758910221E-10</v>
+        <v>-1.434779169258611E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999994265</v>
+        <v>-179.9999999999793</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023955133</v>
+        <v>0.9710601884679122</v>
       </c>
       <c r="O6">
-        <v>1.100000023257053</v>
+        <v>0.08399869303568253</v>
       </c>
       <c r="P6">
-        <v>1.100000023472996</v>
+        <v>0.9357190172509382</v>
       </c>
       <c r="Q6">
-        <v>29.99999997956427</v>
+        <v>2.248283018886295</v>
       </c>
       <c r="R6">
-        <v>-90.00000002843602</v>
+        <v>-114.9022326412661</v>
       </c>
       <c r="S6">
-        <v>150.0000000070463</v>
+        <v>177.6667554660106</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_3_bus_ward34_resonant.xlsx
@@ -755,16 +755,16 @@
         <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197193</v>
+        <v>0.9618627255197204</v>
       </c>
       <c r="P2">
-        <v>1.05530912685228</v>
+        <v>1.055309126852281</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694228</v>
+        <v>26.46268431694231</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676154</v>
+        <v>-91.57079613676152</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.058332742123208</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621022</v>
+        <v>0.4199934651621063</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134004</v>
+        <v>0.884945840713402</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971088</v>
+        <v>10.36827052971106</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535645</v>
+        <v>-114.9022326535639</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045108</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778329</v>
+        <v>0.9909306888778322</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669872</v>
+        <v>0.1679973860669934</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492231</v>
+        <v>0.9204173017492242</v>
       </c>
       <c r="Q4">
-        <v>4.40962044340401</v>
+        <v>4.409620443404259</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490688</v>
+        <v>-114.9022326490672</v>
       </c>
       <c r="S4">
-        <v>175.2518098001974</v>
+        <v>175.2518098001972</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,55 +896,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390387</v>
       </c>
       <c r="D5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390387</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847998</v>
       </c>
       <c r="G5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039776</v>
+        <v>0.9526279648039768</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057683</v>
+        <v>0.9526279648057691</v>
       </c>
       <c r="Q5">
-        <v>-1.434779169258611E-11</v>
+        <v>-1.405283785145512E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999795</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679122</v>
+        <v>0.9710601884679114</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568253</v>
+        <v>0.0839986930356893</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509382</v>
+        <v>0.9357190172509391</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886295</v>
+        <v>2.248283018886572</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412661</v>
+        <v>-114.9022326412627</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660104</v>
       </c>
     </row>
   </sheetData>
@@ -1128,10 +1128,10 @@
         <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983946</v>
+        <v>28.13571929983947</v>
       </c>
       <c r="R2">
-        <v>-91.691325962866</v>
+        <v>-91.69132596286599</v>
       </c>
       <c r="S2">
         <v>151.0929640471427</v>
@@ -1181,16 +1181,16 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619034</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892722</v>
+        <v>0.9451006847892729</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694267</v>
+        <v>20.24709464694271</v>
       </c>
       <c r="R3">
-        <v>-103.06533213792</v>
+        <v>-103.0653321379199</v>
       </c>
       <c r="S3">
         <v>156.0082067402618</v>
@@ -1240,16 +1240,16 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114375</v>
+        <v>0.6610662947114386</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612577</v>
+        <v>0.9321671592612587</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956702</v>
+        <v>17.32147694956709</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854825</v>
+        <v>-103.5752691854823</v>
       </c>
       <c r="S4">
         <v>159.8377717076658</v>
@@ -1263,55 +1263,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805918</v>
+        <v>1.628672512805911</v>
       </c>
       <c r="D5">
-        <v>1.628672512805918</v>
+        <v>1.628672512805911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380474</v>
       </c>
       <c r="G5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380474</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>1.059943178513074</v>
+        <v>1.059943178513073</v>
       </c>
       <c r="O5">
-        <v>0.575822689067786</v>
+        <v>0.5758226890677873</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691394</v>
+        <v>0.9259084304691404</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041744</v>
+        <v>15.27863230041751</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188619</v>
       </c>
       <c r="S5">
-        <v>162.4426920027739</v>
+        <v>162.4426920027738</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.069377593873312</v>
+        <v>1.069377593873311</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324072</v>
+        <v>0.6184394066324083</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541841</v>
+        <v>0.9287977660541852</v>
       </c>
       <c r="Q6">
-        <v>16.3092277935017</v>
+        <v>16.30922779350178</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.7921223584374</v>
       </c>
       <c r="S6">
         <v>161.1358439017222</v>
@@ -1495,10 +1495,10 @@
         <v>1.07075516847179</v>
       </c>
       <c r="Q2">
-        <v>28.13571929983946</v>
+        <v>28.13571929983947</v>
       </c>
       <c r="R2">
-        <v>-91.691325962866</v>
+        <v>-91.69132596286599</v>
       </c>
       <c r="S2">
         <v>151.0929640471427</v>
@@ -1548,16 +1548,16 @@
         <v>1.110422696305666</v>
       </c>
       <c r="O3">
-        <v>0.7889914957619026</v>
+        <v>0.7889914957619034</v>
       </c>
       <c r="P3">
-        <v>0.9451006847892722</v>
+        <v>0.9451006847892729</v>
       </c>
       <c r="Q3">
-        <v>20.24709464694267</v>
+        <v>20.24709464694271</v>
       </c>
       <c r="R3">
-        <v>-103.06533213792</v>
+        <v>-103.0653321379199</v>
       </c>
       <c r="S3">
         <v>156.0082067402618</v>
@@ -1607,16 +1607,16 @@
         <v>1.079151884057173</v>
       </c>
       <c r="O4">
-        <v>0.6610662947114375</v>
+        <v>0.6610662947114386</v>
       </c>
       <c r="P4">
-        <v>0.9321671592612577</v>
+        <v>0.9321671592612587</v>
       </c>
       <c r="Q4">
-        <v>17.32147694956702</v>
+        <v>17.32147694956709</v>
       </c>
       <c r="R4">
-        <v>-103.5752691854825</v>
+        <v>-103.5752691854823</v>
       </c>
       <c r="S4">
         <v>159.8377717076658</v>
@@ -1630,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.628672512805918</v>
+        <v>1.628672512805911</v>
       </c>
       <c r="D5">
-        <v>1.628672512805918</v>
+        <v>1.628672512805911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380474</v>
       </c>
       <c r="G5">
-        <v>18.80629027380482</v>
+        <v>18.80629027380474</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>1.059943178513074</v>
+        <v>1.059943178513073</v>
       </c>
       <c r="O5">
-        <v>0.575822689067786</v>
+        <v>0.5758226890677873</v>
       </c>
       <c r="P5">
-        <v>0.9259084304691394</v>
+        <v>0.9259084304691404</v>
       </c>
       <c r="Q5">
-        <v>15.27863230041744</v>
+        <v>15.27863230041751</v>
       </c>
       <c r="R5">
-        <v>-104.0410782188621</v>
+        <v>-104.0410782188619</v>
       </c>
       <c r="S5">
-        <v>162.4426920027739</v>
+        <v>162.4426920027738</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.069377593873312</v>
+        <v>1.069377593873311</v>
       </c>
       <c r="O6">
-        <v>0.6184394066324072</v>
+        <v>0.6184394066324083</v>
       </c>
       <c r="P6">
-        <v>0.9287977660541841</v>
+        <v>0.9287977660541852</v>
       </c>
       <c r="Q6">
-        <v>16.3092277935017</v>
+        <v>16.30922779350178</v>
       </c>
       <c r="R6">
-        <v>-103.7921223584376</v>
+        <v>-103.7921223584374</v>
       </c>
       <c r="S6">
         <v>161.1358439017222</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9929355927218108</v>
+        <v>0.992935592721811</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842805</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608427</v>
+        <v>0.9495696022608425</v>
       </c>
       <c r="Q2">
         <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439109</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -1915,16 +1915,16 @@
         <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.503706297796965</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035887</v>
+        <v>0.763942555603587</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981258</v>
+        <v>12.09779838981261</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883315</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -1974,19 +1974,19 @@
         <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277486</v>
+        <v>0.2014825191277487</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965646</v>
+        <v>0.817447300596563</v>
       </c>
       <c r="Q4">
-        <v>5.32248358880222</v>
+        <v>5.322483588802247</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833985</v>
+        <v>-121.792556283399</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855863</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132324</v>
+        <v>30.09210594132332</v>
       </c>
       <c r="G5">
-        <v>30.09210594132324</v>
+        <v>30.09210594132332</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886728</v>
+        <v>0.8660254037886731</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890387</v>
+        <v>0.8660254037890371</v>
       </c>
       <c r="Q5">
-        <v>1.923112272131359E-10</v>
+        <v>1.923224338495183E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579176</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722653</v>
+        <v>0.1007412595722652</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222766</v>
+        <v>0.8405788745222752</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569063</v>
+        <v>2.746170498569091</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748669</v>
+        <v>-121.7925562748681</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190645</v>
       </c>
     </row>
   </sheetData>
@@ -2220,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9929355927218108</v>
+        <v>0.992935592721811</v>
       </c>
       <c r="O2">
-        <v>0.8804584269842806</v>
+        <v>0.8804584269842805</v>
       </c>
       <c r="P2">
-        <v>0.9495696022608427</v>
+        <v>0.9495696022608425</v>
       </c>
       <c r="Q2">
         <v>26.27528026615309</v>
       </c>
       <c r="R2">
-        <v>-93.16654538439109</v>
+        <v>-93.1665453843911</v>
       </c>
       <c r="S2">
         <v>152.425513590047</v>
@@ -2282,16 +2282,16 @@
         <v>1.02139697912874</v>
       </c>
       <c r="O3">
-        <v>0.5037062977969645</v>
+        <v>0.503706297796965</v>
       </c>
       <c r="P3">
-        <v>0.7639425556035887</v>
+        <v>0.763942555603587</v>
       </c>
       <c r="Q3">
-        <v>12.09779838981258</v>
+        <v>12.09779838981261</v>
       </c>
       <c r="R3">
-        <v>-121.7925562883315</v>
+        <v>-121.7925562883316</v>
       </c>
       <c r="S3">
         <v>163.7271795849222</v>
@@ -2341,19 +2341,19 @@
         <v>0.9230804480215801</v>
       </c>
       <c r="O4">
-        <v>0.2014825191277486</v>
+        <v>0.2014825191277487</v>
       </c>
       <c r="P4">
-        <v>0.8174473005965646</v>
+        <v>0.817447300596563</v>
       </c>
       <c r="Q4">
-        <v>5.32248358880222</v>
+        <v>5.322483588802247</v>
       </c>
       <c r="R4">
-        <v>-121.7925562833985</v>
+        <v>-121.792556283399</v>
       </c>
       <c r="S4">
-        <v>173.987338884872</v>
+        <v>173.9873388848721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855863</v>
       </c>
       <c r="D5">
-        <v>2.606052819855857</v>
+        <v>2.606052819855863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.09210594132324</v>
+        <v>30.09210594132332</v>
       </c>
       <c r="G5">
-        <v>30.09210594132324</v>
+        <v>30.09210594132332</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0.8660254037886728</v>
+        <v>0.8660254037886731</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037890387</v>
+        <v>0.8660254037890371</v>
       </c>
       <c r="Q5">
-        <v>1.923112272131359E-10</v>
+        <v>1.923224338495183E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997995</v>
+        <v>179.9999999997997</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8935891429579176</v>
+        <v>0.8935891429579178</v>
       </c>
       <c r="O6">
-        <v>0.1007412595722653</v>
+        <v>0.1007412595722652</v>
       </c>
       <c r="P6">
-        <v>0.8405788745222766</v>
+        <v>0.8405788745222752</v>
       </c>
       <c r="Q6">
-        <v>2.746170498569063</v>
+        <v>2.746170498569091</v>
       </c>
       <c r="R6">
-        <v>-121.7925562748669</v>
+        <v>-121.7925562748681</v>
       </c>
       <c r="S6">
-        <v>177.0804994190644</v>
+        <v>177.0804994190645</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2593,7 @@
         <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111741</v>
       </c>
       <c r="Q2">
         <v>28.0357480611579</v>
@@ -2649,13 +2649,13 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.744870594536621</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217642</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
         <v>-104.1311854330021</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901759</v>
       </c>
       <c r="O4">
-        <v>0.588425524625115</v>
+        <v>0.5884255246251151</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.856702122155123</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872722</v>
+        <v>17.29967291872725</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -2731,55 +2731,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="D5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="G5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
         <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357798</v>
+        <v>0.4850955530357797</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741073</v>
+        <v>0.8618501377741065</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875882</v>
+        <v>14.83811452875885</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339256</v>
+        <v>-99.04485975339263</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2829,10 +2829,10 @@
         <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454882</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904601</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
         <v>-100.4551748721694</v>
@@ -2960,7 +2960,7 @@
         <v>0.9413695280821804</v>
       </c>
       <c r="P2">
-        <v>0.9703704959111742</v>
+        <v>0.9703704959111741</v>
       </c>
       <c r="Q2">
         <v>28.0357480611579</v>
@@ -3016,13 +3016,13 @@
         <v>1.022838679026473</v>
       </c>
       <c r="O3">
-        <v>0.7448705945366206</v>
+        <v>0.744870594536621</v>
       </c>
       <c r="P3">
-        <v>0.8551123540217649</v>
+        <v>0.8551123540217642</v>
       </c>
       <c r="Q3">
-        <v>20.67709037248193</v>
+        <v>20.67709037248195</v>
       </c>
       <c r="R3">
         <v>-104.1311854330021</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9691149430901757</v>
+        <v>0.9691149430901759</v>
       </c>
       <c r="O4">
-        <v>0.588425524625115</v>
+        <v>0.5884255246251151</v>
       </c>
       <c r="P4">
-        <v>0.856702122155124</v>
+        <v>0.856702122155123</v>
       </c>
       <c r="Q4">
-        <v>17.29967291872722</v>
+        <v>17.29967291872725</v>
       </c>
       <c r="R4">
-        <v>-101.6177951673501</v>
+        <v>-101.6177951673502</v>
       </c>
       <c r="S4">
         <v>160.3429768147775</v>
@@ -3098,55 +3098,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="D5">
-        <v>1.372057420289412</v>
+        <v>1.372057420289414</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="G5">
-        <v>15.84315441895431</v>
+        <v>15.84315441895433</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
         <v>0.9353465602742624</v>
       </c>
       <c r="O5">
-        <v>0.4850955530357798</v>
+        <v>0.4850955530357797</v>
       </c>
       <c r="P5">
-        <v>0.8618501377741073</v>
+        <v>0.8618501377741065</v>
       </c>
       <c r="Q5">
-        <v>14.83811452875882</v>
+        <v>14.83811452875885</v>
       </c>
       <c r="R5">
-        <v>-99.04485975339256</v>
+        <v>-99.04485975339263</v>
       </c>
       <c r="S5">
-        <v>163.8634513655829</v>
+        <v>163.863451365583</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3196,10 +3196,10 @@
         <v>0.53662649650118</v>
       </c>
       <c r="P6">
-        <v>0.8588706570454891</v>
+        <v>0.8588706570454882</v>
       </c>
       <c r="Q6">
-        <v>16.09072026904601</v>
+        <v>16.09072026904604</v>
       </c>
       <c r="R6">
         <v>-100.4551748721694</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9855289333155797</v>
+        <v>1.0994173438517</v>
       </c>
       <c r="O2">
-        <v>1.100000023847349</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.010694118906341</v>
+        <v>1.099348914852906</v>
       </c>
       <c r="Q2">
-        <v>32.33756670924906</v>
+        <v>30.02164981581202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.4744899280122</v>
+        <v>149.9845225190766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5160681836901986</v>
+        <v>1.096829779563881</v>
       </c>
       <c r="O3">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P3">
-        <v>0.776701630114077</v>
+        <v>1.09666895005007</v>
       </c>
       <c r="Q3">
-        <v>50.26234521814142</v>
+        <v>30.10534102696503</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>115.1352157588075</v>
+        <v>149.9091542389123</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.506240598973688</v>
+        <v>1.096419691210034</v>
       </c>
       <c r="O4">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P4">
-        <v>0.6253440371463844</v>
+        <v>1.095413615909669</v>
       </c>
       <c r="Q4">
-        <v>74.8899778574548</v>
+        <v>30.16864723875148</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>102.1824476978297</v>
+        <v>149.9220053212651</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.549892275514634</v>
+        <v>0.03253055193818092</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64.08463598483597</v>
+        <v>0.3756304583679171</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485610937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271068</v>
       </c>
       <c r="J5">
-        <v>0.9743985901650699</v>
+        <v>0.9743985902952224</v>
       </c>
       <c r="K5">
-        <v>3.291772033564942</v>
+        <v>3.29177203357065</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605282</v>
+        <v>0.9743985902428642</v>
       </c>
       <c r="M5">
-        <v>3.29177203356481</v>
+        <v>3.291772033564921</v>
       </c>
       <c r="N5">
-        <v>0.5500000119538261</v>
+        <v>1.09614704305848</v>
       </c>
       <c r="O5">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P5">
-        <v>0.5500000118969863</v>
+        <v>1.094576757156599</v>
       </c>
       <c r="Q5">
-        <v>89.99999999404237</v>
+        <v>30.21087766207318</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>90.00000000595057</v>
+        <v>149.9305890853089</v>
       </c>
       <c r="T5">
-        <v>5.549892275514634</v>
+        <v>0.03253055193818091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5235436402866926</v>
+        <v>1.096283292688817</v>
       </c>
       <c r="O6">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P6">
-        <v>0.5843678239000876</v>
+        <v>1.094995183461079</v>
       </c>
       <c r="Q6">
-        <v>82.75981206765216</v>
+        <v>30.18975982471199</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>96.48316610499727</v>
+        <v>149.9262955632372</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9855289333155797</v>
+        <v>1.0994173438517</v>
       </c>
       <c r="O2">
-        <v>1.100000023847349</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.010694118906341</v>
+        <v>1.099348914852906</v>
       </c>
       <c r="Q2">
-        <v>32.33756670924906</v>
+        <v>30.02164981581202</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>145.4744899280122</v>
+        <v>149.9845225190766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5160681836901986</v>
+        <v>1.096829779563881</v>
       </c>
       <c r="O3">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P3">
-        <v>0.776701630114077</v>
+        <v>1.09666895005007</v>
       </c>
       <c r="Q3">
-        <v>50.26234521814142</v>
+        <v>30.10534102696503</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999609</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>115.1352157588075</v>
+        <v>149.9091542389123</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.506240598973688</v>
+        <v>1.096419691210034</v>
       </c>
       <c r="O4">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P4">
-        <v>0.6253440371463844</v>
+        <v>1.095413615909669</v>
       </c>
       <c r="Q4">
-        <v>74.8899778574548</v>
+        <v>30.16864723875148</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>102.1824476978297</v>
+        <v>149.9220053212651</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.549892275514634</v>
+        <v>0.03253055193818092</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>64.08463598483597</v>
+        <v>0.3756304583679171</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485610937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271068</v>
       </c>
       <c r="J5">
-        <v>0.9743985901650699</v>
+        <v>0.9743985902952224</v>
       </c>
       <c r="K5">
-        <v>3.291772033564942</v>
+        <v>3.29177203357065</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605282</v>
+        <v>0.9743985902428642</v>
       </c>
       <c r="M5">
-        <v>3.29177203356481</v>
+        <v>3.291772033564921</v>
       </c>
       <c r="N5">
-        <v>0.5500000119538261</v>
+        <v>1.09614704305848</v>
       </c>
       <c r="O5">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P5">
-        <v>0.5500000118969863</v>
+        <v>1.094576757156599</v>
       </c>
       <c r="Q5">
-        <v>89.99999999404237</v>
+        <v>30.21087766207318</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>90.00000000595057</v>
+        <v>149.9305890853089</v>
       </c>
       <c r="T5">
-        <v>5.549892275514634</v>
+        <v>0.03253055193818091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5235436402866926</v>
+        <v>1.096283292688817</v>
       </c>
       <c r="O6">
-        <v>1.100000023850813</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P6">
-        <v>0.5843678239000876</v>
+        <v>1.094995183461079</v>
       </c>
       <c r="Q6">
-        <v>82.75981206765216</v>
+        <v>30.18975982471199</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999621</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>96.48316610499727</v>
+        <v>149.9262955632372</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.069480738650142</v>
+        <v>1.099419663176961</v>
       </c>
       <c r="O2">
-        <v>1.100000023843465</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.086199563901171</v>
+        <v>1.09936097465409</v>
       </c>
       <c r="Q2">
-        <v>29.93059260124622</v>
+        <v>30.02099404644024</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.5714693547407</v>
+        <v>149.9842997034951</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9404140809722226</v>
+        <v>1.096845353319132</v>
       </c>
       <c r="O3">
-        <v>1.100000023845168</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P3">
-        <v>1.043645148716251</v>
+        <v>1.09673341645217</v>
       </c>
       <c r="Q3">
-        <v>29.06827467781987</v>
+        <v>30.10192612808795</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>141.9605338400084</v>
+        <v>149.9081626578289</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8947483932554361</v>
+        <v>1.096425389957806</v>
       </c>
       <c r="O4">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P4">
-        <v>0.9992901481674377</v>
+        <v>1.095491150946395</v>
       </c>
       <c r="Q4">
-        <v>30.93784573119521</v>
+        <v>30.16415041587257</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>140.1740634955099</v>
+        <v>149.9200303986642</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.388525286637516</v>
+        <v>0.03211509453902821</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.03330896033544</v>
+        <v>0.3708331695431644</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485610937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271068</v>
       </c>
       <c r="J5">
-        <v>0.9743985901650699</v>
+        <v>0.9743985902952224</v>
       </c>
       <c r="K5">
-        <v>3.291772033564942</v>
+        <v>3.29177203357065</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605282</v>
+        <v>0.9743985902428642</v>
       </c>
       <c r="M5">
-        <v>3.29177203356481</v>
+        <v>3.291772033564921</v>
       </c>
       <c r="N5">
-        <v>0.8648802219738845</v>
+        <v>1.096146133266504</v>
       </c>
       <c r="O5">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P5">
-        <v>0.9703007874836254</v>
+        <v>1.094663000103113</v>
       </c>
       <c r="Q5">
-        <v>32.29296429119218</v>
+        <v>30.20565973134432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>138.8931587552372</v>
+        <v>149.9279571900698</v>
       </c>
       <c r="T5">
-        <v>1.388525286637515</v>
+        <v>0.03211509453902821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8797528069046628</v>
+        <v>1.096285689687246</v>
       </c>
       <c r="O6">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P6">
-        <v>0.984733957808979</v>
+        <v>1.09507707290476</v>
       </c>
       <c r="Q6">
-        <v>31.60390349352726</v>
+        <v>30.1849024301933</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>139.5430379956034</v>
+        <v>149.9239922957128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.069480738650142</v>
+        <v>1.099419663176961</v>
       </c>
       <c r="O2">
-        <v>1.100000023843465</v>
+        <v>1.100000023841883</v>
       </c>
       <c r="P2">
-        <v>1.086199563901171</v>
+        <v>1.09936097465409</v>
       </c>
       <c r="Q2">
-        <v>29.93059260124622</v>
+        <v>30.02099404644024</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.5714693547407</v>
+        <v>149.9842997034951</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9404140809722226</v>
+        <v>1.096845353319132</v>
       </c>
       <c r="O3">
-        <v>1.100000023845168</v>
+        <v>1.100000023841885</v>
       </c>
       <c r="P3">
-        <v>1.043645148716251</v>
+        <v>1.09673341645217</v>
       </c>
       <c r="Q3">
-        <v>29.06827467781987</v>
+        <v>30.10192612808795</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999964</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S3">
-        <v>141.9605338400084</v>
+        <v>149.9081626578289</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8947483932554361</v>
+        <v>1.096425389957806</v>
       </c>
       <c r="O4">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P4">
-        <v>0.9992901481674377</v>
+        <v>1.095491150946395</v>
       </c>
       <c r="Q4">
-        <v>30.93784573119521</v>
+        <v>30.16415041587257</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>140.1740634955099</v>
+        <v>149.9200303986642</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.388525286637516</v>
+        <v>0.03211509453902821</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.03330896033544</v>
+        <v>0.3708331695431644</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485610937</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271068</v>
       </c>
       <c r="J5">
-        <v>0.9743985901650699</v>
+        <v>0.9743985902952224</v>
       </c>
       <c r="K5">
-        <v>3.291772033564942</v>
+        <v>3.29177203357065</v>
       </c>
       <c r="L5">
-        <v>0.9743985902605282</v>
+        <v>0.9743985902428642</v>
       </c>
       <c r="M5">
-        <v>3.29177203356481</v>
+        <v>3.291772033564921</v>
       </c>
       <c r="N5">
-        <v>0.8648802219738845</v>
+        <v>1.096146133266504</v>
       </c>
       <c r="O5">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P5">
-        <v>0.9703007874836254</v>
+        <v>1.094663000103113</v>
       </c>
       <c r="Q5">
-        <v>32.29296429119218</v>
+        <v>30.20565973134432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>138.8931587552372</v>
+        <v>149.9279571900698</v>
       </c>
       <c r="T5">
-        <v>1.388525286637515</v>
+        <v>0.03211509453902821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8797528069046628</v>
+        <v>1.096285689687246</v>
       </c>
       <c r="O6">
-        <v>1.100000023845168</v>
+        <v>1.100000023841884</v>
       </c>
       <c r="P6">
-        <v>0.984733957808979</v>
+        <v>1.09507707290476</v>
       </c>
       <c r="Q6">
-        <v>31.60390349352726</v>
+        <v>30.1849024301933</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>139.5430379956034</v>
+        <v>149.9239922957128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.888417666617308</v>
+        <v>0.9993966894067697</v>
       </c>
       <c r="O2">
-        <v>0.999999999996202</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9346253859730062</v>
+        <v>0.9993285731201657</v>
       </c>
       <c r="Q2">
-        <v>31.02345805161477</v>
+        <v>30.02447880497034</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>144.5467024754364</v>
+        <v>149.9822795632098</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4587681827456681</v>
+        <v>0.9969790263327845</v>
       </c>
       <c r="O3">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P3">
-        <v>0.8186035708257497</v>
+        <v>0.9968346533822966</v>
       </c>
       <c r="Q3">
-        <v>36.08047684035249</v>
+        <v>30.10984762249058</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>116.9319841378731</v>
+        <v>149.904464984961</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4341862411763743</v>
+        <v>0.9969536419086126</v>
       </c>
       <c r="O4">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P4">
-        <v>0.6102254634619548</v>
+        <v>0.9953339888511574</v>
       </c>
       <c r="Q4">
-        <v>70.02690230762916</v>
+        <v>30.20836819346068</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>104.0660001426885</v>
+        <v>149.9521570464645</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.513815890981983</v>
+        <v>0.02956765707959398</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52.12105639461716</v>
+        <v>0.3414178954842026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589299827</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488121</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894163272</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.39973087925034</v>
       </c>
       <c r="L5">
-        <v>1.779351893992693</v>
+        <v>1.779351893977155</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.399730879243013</v>
       </c>
       <c r="N5">
-        <v>0.500000000017741</v>
+        <v>0.9969383566388503</v>
       </c>
       <c r="O5">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P5">
-        <v>0.4999999999842513</v>
+        <v>0.9943339299213226</v>
       </c>
       <c r="Q5">
-        <v>89.99999999497189</v>
+        <v>30.27405123553415</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>90.00000000502069</v>
+        <v>149.9840317149376</v>
       </c>
       <c r="T5">
-        <v>4.513815890981983</v>
+        <v>0.02956765707959397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4600513503919653</v>
+        <v>0.9969458355005872</v>
       </c>
       <c r="O6">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P6">
-        <v>0.5509772745602672</v>
+        <v>0.9948339208999684</v>
       </c>
       <c r="Q6">
-        <v>80.72418297166683</v>
+        <v>30.24120946273084</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>97.73474385832507</v>
+        <v>149.9680863701843</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.888417666617308</v>
+        <v>0.9993966894067697</v>
       </c>
       <c r="O2">
-        <v>0.999999999996202</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9346253859730062</v>
+        <v>0.9993285731201657</v>
       </c>
       <c r="Q2">
-        <v>31.02345805161477</v>
+        <v>30.02447880497034</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>144.5467024754364</v>
+        <v>149.9822795632098</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4587681827456681</v>
+        <v>0.9969790263327845</v>
       </c>
       <c r="O3">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P3">
-        <v>0.8186035708257497</v>
+        <v>0.9968346533822966</v>
       </c>
       <c r="Q3">
-        <v>36.08047684035249</v>
+        <v>30.10984762249058</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>116.9319841378731</v>
+        <v>149.904464984961</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4341862411763743</v>
+        <v>0.9969536419086126</v>
       </c>
       <c r="O4">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P4">
-        <v>0.6102254634619548</v>
+        <v>0.9953339888511574</v>
       </c>
       <c r="Q4">
-        <v>70.02690230762916</v>
+        <v>30.20836819346068</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>104.0660001426885</v>
+        <v>149.9521570464645</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.513815890981983</v>
+        <v>0.02956765707959398</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>52.12105639461716</v>
+        <v>0.3414178954842026</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589299827</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488121</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894163272</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.39973087925034</v>
       </c>
       <c r="L5">
-        <v>1.779351893992693</v>
+        <v>1.779351893977155</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.399730879243013</v>
       </c>
       <c r="N5">
-        <v>0.500000000017741</v>
+        <v>0.9969383566388503</v>
       </c>
       <c r="O5">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P5">
-        <v>0.4999999999842513</v>
+        <v>0.9943339299213226</v>
       </c>
       <c r="Q5">
-        <v>89.99999999497189</v>
+        <v>30.27405123553415</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999642</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>90.00000000502069</v>
+        <v>149.9840317149376</v>
       </c>
       <c r="T5">
-        <v>4.513815890981983</v>
+        <v>0.02956765707959397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4600513503919653</v>
+        <v>0.9969458355005872</v>
       </c>
       <c r="O6">
-        <v>1.000000000001992</v>
+        <v>1.000000000000034</v>
       </c>
       <c r="P6">
-        <v>0.5509772745602672</v>
+        <v>0.9948339208999684</v>
       </c>
       <c r="Q6">
-        <v>80.72418297166683</v>
+        <v>30.24120946273084</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>97.73474385832507</v>
+        <v>149.9680863701843</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9698552922568939</v>
+        <v>0.9993991736879085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985624</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.987450643959367</v>
+        <v>0.999341056830848</v>
       </c>
       <c r="Q2">
-        <v>29.85362188757213</v>
+        <v>30.02373483062506</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.4129753593324</v>
+        <v>149.9820314276224</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8551786895019629</v>
+        <v>0.9969942002265543</v>
       </c>
       <c r="O3">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P3">
-        <v>0.9540623163665299</v>
+        <v>0.9968960836618408</v>
       </c>
       <c r="Q3">
-        <v>28.69014273308586</v>
+        <v>30.10627881711473</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>141.8418649090393</v>
+        <v>149.9034482266227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8096247667889843</v>
+        <v>0.996947788868597</v>
       </c>
       <c r="O4">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P4">
-        <v>0.8880814833999696</v>
+        <v>0.9954044678064782</v>
       </c>
       <c r="Q4">
-        <v>32.36506606732159</v>
+        <v>30.2035108117856</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>140.3569664116717</v>
+        <v>149.9494507586126</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.209980902411273</v>
+        <v>0.02918884803459626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.97165599442909</v>
+        <v>0.3370437854021845</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589299827</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488121</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894163272</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.39973087925034</v>
       </c>
       <c r="L5">
-        <v>1.779351893992693</v>
+        <v>1.779351893977155</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.399730879243013</v>
       </c>
       <c r="N5">
-        <v>0.7812828227929544</v>
+        <v>0.9969184431305991</v>
       </c>
       <c r="O5">
-        <v>1.000000000000097</v>
+        <v>1.000000000000032</v>
       </c>
       <c r="P5">
-        <v>0.8444687113479696</v>
+        <v>0.9944104146155621</v>
       </c>
       <c r="Q5">
-        <v>35.04587756095405</v>
+        <v>30.26833705014011</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>139.2386166539254</v>
+        <v>149.980195771316</v>
       </c>
       <c r="T5">
-        <v>1.209980902411273</v>
+        <v>0.02918884803459626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7952361969551069</v>
+        <v>0.9969329564733334</v>
       </c>
       <c r="O6">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P6">
-        <v>0.8662338689117168</v>
+        <v>0.9949074054017161</v>
       </c>
       <c r="Q6">
-        <v>33.68158819279844</v>
+        <v>30.23592345390444</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>139.8118678584347</v>
+        <v>149.9648155853134</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9698552922568939</v>
+        <v>0.9993991736879085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985624</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P2">
-        <v>0.987450643959367</v>
+        <v>0.999341056830848</v>
       </c>
       <c r="Q2">
-        <v>29.85362188757213</v>
+        <v>30.02373483062506</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>148.4129753593324</v>
+        <v>149.9820314276224</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8551786895019629</v>
+        <v>0.9969942002265543</v>
       </c>
       <c r="O3">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P3">
-        <v>0.9540623163665299</v>
+        <v>0.9968960836618408</v>
       </c>
       <c r="Q3">
-        <v>28.69014273308586</v>
+        <v>30.10627881711473</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S3">
-        <v>141.8418649090393</v>
+        <v>149.9034482266227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8096247667889843</v>
+        <v>0.996947788868597</v>
       </c>
       <c r="O4">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P4">
-        <v>0.8880814833999696</v>
+        <v>0.9954044678064782</v>
       </c>
       <c r="Q4">
-        <v>32.36506606732159</v>
+        <v>30.2035108117856</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S4">
-        <v>140.3569664116717</v>
+        <v>149.9494507586126</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.209980902411273</v>
+        <v>0.02918884803459626</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.97165599442909</v>
+        <v>0.3370437854021845</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589299827</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488121</v>
       </c>
       <c r="J5">
-        <v>1.779351894034215</v>
+        <v>1.779351894163272</v>
       </c>
       <c r="K5">
-        <v>3.399730879243905</v>
+        <v>3.39973087925034</v>
       </c>
       <c r="L5">
-        <v>1.779351893992693</v>
+        <v>1.779351893977155</v>
       </c>
       <c r="M5">
-        <v>3.39973087924376</v>
+        <v>3.399730879243013</v>
       </c>
       <c r="N5">
-        <v>0.7812828227929544</v>
+        <v>0.9969184431305991</v>
       </c>
       <c r="O5">
-        <v>1.000000000000097</v>
+        <v>1.000000000000032</v>
       </c>
       <c r="P5">
-        <v>0.8444687113479696</v>
+        <v>0.9944104146155621</v>
       </c>
       <c r="Q5">
-        <v>35.04587756095405</v>
+        <v>30.26833705014011</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S5">
-        <v>139.2386166539254</v>
+        <v>149.980195771316</v>
       </c>
       <c r="T5">
-        <v>1.209980902411273</v>
+        <v>0.02918884803459626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7952361969551069</v>
+        <v>0.9969329564733334</v>
       </c>
       <c r="O6">
-        <v>1.000000000000097</v>
+        <v>1.000000000000031</v>
       </c>
       <c r="P6">
-        <v>0.8662338689117168</v>
+        <v>0.9949074054017161</v>
       </c>
       <c r="Q6">
-        <v>33.68158819279844</v>
+        <v>30.23592345390444</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999788</v>
       </c>
       <c r="S6">
-        <v>139.8118678584347</v>
+        <v>149.9648155853134</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9618627255527031</v>
+        <v>1.078695505609696</v>
       </c>
       <c r="O2">
-        <v>0.9618627255242649</v>
+        <v>0.961862725519725</v>
       </c>
       <c r="P2">
-        <v>0.9618627255389796</v>
+        <v>1.055142008139594</v>
       </c>
       <c r="Q2">
-        <v>28.42920386331091</v>
+        <v>26.46774410015592</v>
       </c>
       <c r="R2">
-        <v>-91.57079613665013</v>
+        <v>-91.57079613676078</v>
       </c>
       <c r="S2">
-        <v>148.4292038647901</v>
+        <v>152.8958107103689</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4199934652969321</v>
+        <v>1.057412833973357</v>
       </c>
       <c r="O3">
-        <v>0.4199934651617762</v>
+        <v>0.419993465162071</v>
       </c>
       <c r="P3">
-        <v>0.4199934651742211</v>
+        <v>0.8840162579029014</v>
       </c>
       <c r="Q3">
-        <v>5.097767356433506</v>
+        <v>10.37967230914813</v>
       </c>
       <c r="R3">
-        <v>-114.9022326522465</v>
+        <v>-114.9022326535542</v>
       </c>
       <c r="S3">
-        <v>125.0977673680541</v>
+        <v>167.5600548929131</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1679973862502682</v>
+        <v>0.9897694290836087</v>
       </c>
       <c r="O4">
-        <v>0.167997386065672</v>
+        <v>0.1679973860669601</v>
       </c>
       <c r="P4">
-        <v>0.1679973861131193</v>
+        <v>0.9192161414396404</v>
       </c>
       <c r="Q4">
-        <v>5.097767373029851</v>
+        <v>4.429500201037463</v>
       </c>
       <c r="R4">
-        <v>-114.9022326446281</v>
+        <v>-114.9022326490354</v>
       </c>
       <c r="S4">
-        <v>125.0977674187158</v>
+        <v>175.2614219652531</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463597548501</v>
+        <v>3.201944620793495</v>
       </c>
       <c r="D5">
-        <v>6.408463597915738</v>
+        <v>3.206538148349769</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.9985636627309</v>
+        <v>36.97287177490797</v>
       </c>
       <c r="G5">
-        <v>73.99856366697139</v>
+        <v>37.02591326233087</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9512827558808562</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.9512827558827596</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02374484957296959</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-179.9762551503935</v>
       </c>
       <c r="T5">
-        <v>11.09978454910767</v>
+        <v>0.01633419737688252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08399869323511394</v>
+        <v>0.9698091432769361</v>
       </c>
       <c r="O6">
-        <v>0.08399869303403772</v>
+        <v>0.0839986930356566</v>
       </c>
       <c r="P6">
-        <v>0.08399869309315236</v>
+        <v>0.9344421399078501</v>
       </c>
       <c r="Q6">
-        <v>5.097767401000481</v>
+        <v>2.270322131848134</v>
       </c>
       <c r="R6">
-        <v>-114.9022326316208</v>
+        <v>-114.9022326411942</v>
       </c>
       <c r="S6">
-        <v>125.097767503462</v>
+        <v>177.6834279984603</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9618627255527031</v>
+        <v>1.078695505609696</v>
       </c>
       <c r="O2">
-        <v>0.9618627255242649</v>
+        <v>0.961862725519725</v>
       </c>
       <c r="P2">
-        <v>0.9618627255389796</v>
+        <v>1.055142008139594</v>
       </c>
       <c r="Q2">
-        <v>28.42920386331091</v>
+        <v>26.46774410015592</v>
       </c>
       <c r="R2">
-        <v>-91.57079613665013</v>
+        <v>-91.57079613676078</v>
       </c>
       <c r="S2">
-        <v>148.4292038647901</v>
+        <v>152.8958107103689</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4199934652969321</v>
+        <v>1.057412833973357</v>
       </c>
       <c r="O3">
-        <v>0.4199934651617762</v>
+        <v>0.419993465162071</v>
       </c>
       <c r="P3">
-        <v>0.4199934651742211</v>
+        <v>0.8840162579029014</v>
       </c>
       <c r="Q3">
-        <v>5.097767356433506</v>
+        <v>10.37967230914813</v>
       </c>
       <c r="R3">
-        <v>-114.9022326522465</v>
+        <v>-114.9022326535542</v>
       </c>
       <c r="S3">
-        <v>125.0977673680541</v>
+        <v>167.5600548929131</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1679973862502682</v>
+        <v>0.9897694290836087</v>
       </c>
       <c r="O4">
-        <v>0.167997386065672</v>
+        <v>0.1679973860669601</v>
       </c>
       <c r="P4">
-        <v>0.1679973861131193</v>
+        <v>0.9192161414396404</v>
       </c>
       <c r="Q4">
-        <v>5.097767373029851</v>
+        <v>4.429500201037463</v>
       </c>
       <c r="R4">
-        <v>-114.9022326446281</v>
+        <v>-114.9022326490354</v>
       </c>
       <c r="S4">
-        <v>125.0977674187158</v>
+        <v>175.2614219652531</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.408463597548501</v>
+        <v>3.201944620793495</v>
       </c>
       <c r="D5">
-        <v>6.408463597915738</v>
+        <v>3.206538148349769</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>73.9985636627309</v>
+        <v>36.97287177490797</v>
       </c>
       <c r="G5">
-        <v>73.99856366697139</v>
+        <v>37.02591326233087</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9512827558808562</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.9512827558827596</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02374484957296959</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-179.9762551503935</v>
       </c>
       <c r="T5">
-        <v>11.09978454910767</v>
+        <v>0.01633419737688252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08399869323511394</v>
+        <v>0.9698091432769361</v>
       </c>
       <c r="O6">
-        <v>0.08399869303403772</v>
+        <v>0.0839986930356566</v>
       </c>
       <c r="P6">
-        <v>0.08399869309315236</v>
+        <v>0.9344421399078501</v>
       </c>
       <c r="Q6">
-        <v>5.097767401000481</v>
+        <v>2.270322131848134</v>
       </c>
       <c r="R6">
-        <v>-114.9022326316208</v>
+        <v>-114.9022326411942</v>
       </c>
       <c r="S6">
-        <v>125.097767503462</v>
+        <v>177.6834279984603</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083139218667921</v>
+        <v>1.100132802158424</v>
       </c>
       <c r="O2">
-        <v>1.059278148953053</v>
+        <v>1.05927814895223</v>
       </c>
       <c r="P2">
-        <v>1.072307930635247</v>
+        <v>1.079382040059349</v>
       </c>
       <c r="Q2">
-        <v>28.66105174539966</v>
+        <v>28.77203197153445</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733744</v>
+        <v>-91.28334085733987</v>
       </c>
       <c r="S2">
-        <v>149.7927530229886</v>
+        <v>150.6233099341043</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.026319339815347</v>
+        <v>1.11283014670389</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886102</v>
+        <v>0.9019226052871741</v>
       </c>
       <c r="P3">
-        <v>0.9562158676264629</v>
+        <v>0.9898347258563364</v>
       </c>
       <c r="Q3">
-        <v>22.29958416318838</v>
+        <v>23.61864996579743</v>
       </c>
       <c r="R3">
-        <v>-98.66237050193624</v>
+        <v>-98.66237050195656</v>
       </c>
       <c r="S3">
-        <v>148.3187487787069</v>
+        <v>153.2332140186856</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9783482512761524</v>
+        <v>1.092635678521159</v>
       </c>
       <c r="O4">
-        <v>0.8174068168697867</v>
+        <v>0.8174068168684684</v>
       </c>
       <c r="P4">
-        <v>0.9115583371919599</v>
+        <v>0.9750576654109964</v>
       </c>
       <c r="Q4">
-        <v>20.80236550736362</v>
+        <v>21.69673582460216</v>
       </c>
       <c r="R4">
-        <v>-98.97748982579562</v>
+        <v>-98.97748982582641</v>
       </c>
       <c r="S4">
-        <v>149.6977460344275</v>
+        <v>155.55791944448</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.389842862273669</v>
+        <v>1.071665479156122</v>
       </c>
       <c r="D5">
-        <v>1.271334315222708</v>
+        <v>1.081032474524146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.04852301329966</v>
+        <v>12.37452705744033</v>
       </c>
       <c r="G5">
-        <v>14.68010418247678</v>
+        <v>12.48268780338486</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0.9467699198774839</v>
+        <v>1.079876713493215</v>
       </c>
       <c r="O5">
-        <v>0.7610792363898123</v>
+        <v>0.7610792363885732</v>
       </c>
       <c r="P5">
-        <v>0.8821046938247632</v>
+        <v>0.9661202488170897</v>
       </c>
       <c r="Q5">
-        <v>19.72041245559807</v>
+        <v>20.3764911756599</v>
       </c>
       <c r="R5">
-        <v>-99.22644568570351</v>
+        <v>-99.22644568574259</v>
       </c>
       <c r="S5">
-        <v>150.6942704007944</v>
+        <v>157.1455322124497</v>
       </c>
       <c r="T5">
-        <v>1.569068326504255</v>
+        <v>0.01622922920325869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9625161923336193</v>
+        <v>1.086184104173684</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004486</v>
+        <v>0.78924116639917</v>
       </c>
       <c r="P6">
-        <v>0.8967976130201459</v>
+        <v>0.9704958092077315</v>
       </c>
       <c r="Q6">
-        <v>20.27026305687973</v>
+        <v>21.04049050930198</v>
       </c>
       <c r="R6">
-        <v>-99.09752580832856</v>
+        <v>-99.09752580836333</v>
       </c>
       <c r="S6">
-        <v>150.1878260752178</v>
+        <v>156.3480708145489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.083139218667921</v>
+        <v>1.100132802158424</v>
       </c>
       <c r="O2">
-        <v>1.059278148953053</v>
+        <v>1.05927814895223</v>
       </c>
       <c r="P2">
-        <v>1.072307930635247</v>
+        <v>1.079382040059349</v>
       </c>
       <c r="Q2">
-        <v>28.66105174539966</v>
+        <v>28.77203197153445</v>
       </c>
       <c r="R2">
-        <v>-91.28334085733744</v>
+        <v>-91.28334085733987</v>
       </c>
       <c r="S2">
-        <v>149.7927530229886</v>
+        <v>150.6233099341043</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.026319339815347</v>
+        <v>1.11283014670389</v>
       </c>
       <c r="O3">
-        <v>0.9019226052886102</v>
+        <v>0.9019226052871741</v>
       </c>
       <c r="P3">
-        <v>0.9562158676264629</v>
+        <v>0.9898347258563364</v>
       </c>
       <c r="Q3">
-        <v>22.29958416318838</v>
+        <v>23.61864996579743</v>
       </c>
       <c r="R3">
-        <v>-98.66237050193624</v>
+        <v>-98.66237050195656</v>
       </c>
       <c r="S3">
-        <v>148.3187487787069</v>
+        <v>153.2332140186856</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9783482512761524</v>
+        <v>1.092635678521159</v>
       </c>
       <c r="O4">
-        <v>0.8174068168697867</v>
+        <v>0.8174068168684684</v>
       </c>
       <c r="P4">
-        <v>0.9115583371919599</v>
+        <v>0.9750576654109964</v>
       </c>
       <c r="Q4">
-        <v>20.80236550736362</v>
+        <v>21.69673582460216</v>
       </c>
       <c r="R4">
-        <v>-98.97748982579562</v>
+        <v>-98.97748982582641</v>
       </c>
       <c r="S4">
-        <v>149.6977460344275</v>
+        <v>155.55791944448</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.389842862273669</v>
+        <v>1.071665479156122</v>
       </c>
       <c r="D5">
-        <v>1.271334315222708</v>
+        <v>1.081032474524146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.04852301329966</v>
+        <v>12.37452705744033</v>
       </c>
       <c r="G5">
-        <v>14.68010418247678</v>
+        <v>12.48268780338486</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0.9467699198774839</v>
+        <v>1.079876713493215</v>
       </c>
       <c r="O5">
-        <v>0.7610792363898123</v>
+        <v>0.7610792363885732</v>
       </c>
       <c r="P5">
-        <v>0.8821046938247632</v>
+        <v>0.9661202488170897</v>
       </c>
       <c r="Q5">
-        <v>19.72041245559807</v>
+        <v>20.3764911756599</v>
       </c>
       <c r="R5">
-        <v>-99.22644568570351</v>
+        <v>-99.22644568574259</v>
       </c>
       <c r="S5">
-        <v>150.6942704007944</v>
+        <v>157.1455322124497</v>
       </c>
       <c r="T5">
-        <v>1.569068326504255</v>
+        <v>0.01622922920325869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9625161923336193</v>
+        <v>1.086184104173684</v>
       </c>
       <c r="O6">
-        <v>0.7892411664004486</v>
+        <v>0.78924116639917</v>
       </c>
       <c r="P6">
-        <v>0.8967976130201459</v>
+        <v>0.9704958092077315</v>
       </c>
       <c r="Q6">
-        <v>20.27026305687973</v>
+        <v>21.04049050930198</v>
       </c>
       <c r="R6">
-        <v>-99.09752580832856</v>
+        <v>-99.09752580836333</v>
       </c>
       <c r="S6">
-        <v>150.1878260752178</v>
+        <v>156.3480708145489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8804584270027439</v>
+        <v>0.9927776601085823</v>
       </c>
       <c r="O2">
-        <v>0.8804584269810506</v>
+        <v>0.880458426984278</v>
       </c>
       <c r="P2">
-        <v>0.8804584269840272</v>
+        <v>0.9493977081978964</v>
       </c>
       <c r="Q2">
-        <v>26.83345461615414</v>
+        <v>26.28090724742092</v>
       </c>
       <c r="R2">
-        <v>-93.16654538443235</v>
+        <v>-93.16654538439066</v>
       </c>
       <c r="S2">
-        <v>146.8334546170761</v>
+        <v>152.4212882443727</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.503706297868402</v>
+        <v>1.020527710678273</v>
       </c>
       <c r="O3">
-        <v>0.5037062978020516</v>
+        <v>0.5037062977969358</v>
       </c>
       <c r="P3">
-        <v>0.5037062977551596</v>
+        <v>0.7630706184517685</v>
       </c>
       <c r="Q3">
-        <v>-1.792556277737473</v>
+        <v>12.11045058303591</v>
       </c>
       <c r="R3">
-        <v>-121.792556288249</v>
+        <v>-121.7925562883273</v>
       </c>
       <c r="S3">
-        <v>118.2074437235356</v>
+        <v>163.7110529328815</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2014825192544585</v>
+        <v>0.9220050668148219</v>
       </c>
       <c r="O4">
-        <v>0.2014825191336002</v>
+        <v>0.2014825191277207</v>
       </c>
       <c r="P4">
-        <v>0.2014825191159128</v>
+        <v>0.8162926460243103</v>
       </c>
       <c r="Q4">
-        <v>-1.792556257958278</v>
+        <v>5.354151959021826</v>
       </c>
       <c r="R4">
-        <v>-121.792556283604</v>
+        <v>-121.7925562833833</v>
       </c>
       <c r="S4">
-        <v>118.2074437589756</v>
+        <v>174.0075730896947</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105638758383</v>
+        <v>2.60265264435992</v>
       </c>
       <c r="D5">
-        <v>5.212105639194835</v>
+        <v>2.609469688291862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187163838</v>
+        <v>30.05284409656582</v>
       </c>
       <c r="G5">
-        <v>60.18421187667809</v>
+        <v>30.13156053954951</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8647602016456899</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8647602016461204</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.04332925882202418</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-179.9566707415574</v>
       </c>
       <c r="T5">
-        <v>9.027631780706923</v>
+        <v>0.01484867337139865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1007412597173991</v>
+        <v>0.8924243333780298</v>
       </c>
       <c r="O6">
-        <v>0.1007412595783718</v>
+        <v>0.1007412595722378</v>
       </c>
       <c r="P6">
-        <v>0.100741259570419</v>
+        <v>0.8393617142003831</v>
       </c>
       <c r="Q6">
-        <v>-1.792556224682957</v>
+        <v>2.783876291798198</v>
       </c>
       <c r="R6">
-        <v>-121.7925562755524</v>
+        <v>-121.7925562748333</v>
       </c>
       <c r="S6">
-        <v>118.2074438183522</v>
+        <v>177.1125421166742</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8804584270027439</v>
+        <v>0.9927776601085823</v>
       </c>
       <c r="O2">
-        <v>0.8804584269810506</v>
+        <v>0.880458426984278</v>
       </c>
       <c r="P2">
-        <v>0.8804584269840272</v>
+        <v>0.9493977081978964</v>
       </c>
       <c r="Q2">
-        <v>26.83345461615414</v>
+        <v>26.28090724742092</v>
       </c>
       <c r="R2">
-        <v>-93.16654538443235</v>
+        <v>-93.16654538439066</v>
       </c>
       <c r="S2">
-        <v>146.8334546170761</v>
+        <v>152.4212882443727</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.503706297868402</v>
+        <v>1.020527710678273</v>
       </c>
       <c r="O3">
-        <v>0.5037062978020516</v>
+        <v>0.5037062977969358</v>
       </c>
       <c r="P3">
-        <v>0.5037062977551596</v>
+        <v>0.7630706184517685</v>
       </c>
       <c r="Q3">
-        <v>-1.792556277737473</v>
+        <v>12.11045058303591</v>
       </c>
       <c r="R3">
-        <v>-121.792556288249</v>
+        <v>-121.7925562883273</v>
       </c>
       <c r="S3">
-        <v>118.2074437235356</v>
+        <v>163.7110529328815</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2014825192544585</v>
+        <v>0.9220050668148219</v>
       </c>
       <c r="O4">
-        <v>0.2014825191336002</v>
+        <v>0.2014825191277207</v>
       </c>
       <c r="P4">
-        <v>0.2014825191159128</v>
+        <v>0.8162926460243103</v>
       </c>
       <c r="Q4">
-        <v>-1.792556257958278</v>
+        <v>5.354151959021826</v>
       </c>
       <c r="R4">
-        <v>-121.792556283604</v>
+        <v>-121.7925562833833</v>
       </c>
       <c r="S4">
-        <v>118.2074437589756</v>
+        <v>174.0075730896947</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.212105638758383</v>
+        <v>2.60265264435992</v>
       </c>
       <c r="D5">
-        <v>5.212105639194835</v>
+        <v>2.609469688291862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.18421187163838</v>
+        <v>30.05284409656582</v>
       </c>
       <c r="G5">
-        <v>60.18421187667809</v>
+        <v>30.13156053954951</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8647602016456899</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8647602016461204</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.04332925882202418</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-179.9566707415574</v>
       </c>
       <c r="T5">
-        <v>9.027631780706923</v>
+        <v>0.01484867337139865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1007412597173991</v>
+        <v>0.8924243333780298</v>
       </c>
       <c r="O6">
-        <v>0.1007412595783718</v>
+        <v>0.1007412595722378</v>
       </c>
       <c r="P6">
-        <v>0.100741259570419</v>
+        <v>0.8393617142003831</v>
       </c>
       <c r="Q6">
-        <v>-1.792556224682957</v>
+        <v>2.783876291798198</v>
       </c>
       <c r="R6">
-        <v>-121.7925562755524</v>
+        <v>-121.7925562748333</v>
       </c>
       <c r="S6">
-        <v>118.2074438183522</v>
+        <v>177.1125421166742</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9843405649673949</v>
+        <v>1.001404908405806</v>
       </c>
       <c r="O2">
-        <v>0.9615729355894181</v>
+        <v>0.9615729355902386</v>
       </c>
       <c r="P2">
-        <v>0.972452191228846</v>
+        <v>0.979215597685716</v>
       </c>
       <c r="Q2">
-        <v>28.53657515969511</v>
+        <v>28.68286435275485</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889205</v>
+        <v>-91.51132863889008</v>
       </c>
       <c r="S2">
-        <v>149.6747068351959</v>
+        <v>150.6065564764538</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375391802455808</v>
+        <v>1.017361100334749</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410964</v>
+        <v>0.8296997009408902</v>
       </c>
       <c r="P3">
-        <v>0.8688572961474457</v>
+        <v>0.8978251364696053</v>
       </c>
       <c r="Q3">
-        <v>22.30837627642724</v>
+        <v>23.73996586607681</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672846</v>
+        <v>-99.17392234672658</v>
       </c>
       <c r="S3">
-        <v>147.7835014710103</v>
+        <v>152.8633222512864</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8699546445373587</v>
+        <v>0.9805579371315731</v>
       </c>
       <c r="O4">
-        <v>0.7246674127323594</v>
+        <v>0.7246674127321109</v>
       </c>
       <c r="P4">
-        <v>0.8201110567856947</v>
+        <v>0.8928734857972074</v>
       </c>
       <c r="Q4">
-        <v>21.39807920673417</v>
+        <v>21.51590069359145</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595901</v>
+        <v>-97.50360857594973</v>
       </c>
       <c r="S4">
-        <v>150.7228482726653</v>
+        <v>156.3038929472537</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.191529891745418</v>
+        <v>0.9218740491441584</v>
       </c>
       <c r="D5">
-        <v>1.124439110801036</v>
+        <v>0.9310063964262983</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.75860207493405</v>
+        <v>10.6448846086462</v>
       </c>
       <c r="G5">
-        <v>12.98390446616643</v>
+        <v>10.75033587187974</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0.8250369273897885</v>
+        <v>0.9568954759185178</v>
       </c>
       <c r="O5">
-        <v>0.6550793552710618</v>
+        <v>0.655079355270789</v>
       </c>
       <c r="P5">
-        <v>0.7889349581209016</v>
+        <v>0.8913752918996759</v>
       </c>
       <c r="Q5">
-        <v>20.70847462310719</v>
+        <v>19.9396961049423</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653627</v>
+        <v>-96.09329345652053</v>
       </c>
       <c r="S5">
-        <v>152.8804881504156</v>
+        <v>158.6134408523092</v>
       </c>
       <c r="T5">
-        <v>1.391108155414494</v>
+        <v>0.0147530253623818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474804505269403</v>
+        <v>0.9686350803482257</v>
       </c>
       <c r="O6">
-        <v>0.6898212699575315</v>
+        <v>0.6898212699572703</v>
       </c>
       <c r="P6">
-        <v>0.8043804515477034</v>
+        <v>0.8919432009878678</v>
       </c>
       <c r="Q6">
-        <v>21.06241437571038</v>
+        <v>20.7374242391045</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911636</v>
+        <v>-96.83401769910402</v>
       </c>
       <c r="S6">
-        <v>151.7807630477585</v>
+        <v>157.4576971304775</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9843405649673949</v>
+        <v>1.001404908405806</v>
       </c>
       <c r="O2">
-        <v>0.9615729355894181</v>
+        <v>0.9615729355902386</v>
       </c>
       <c r="P2">
-        <v>0.972452191228846</v>
+        <v>0.979215597685716</v>
       </c>
       <c r="Q2">
-        <v>28.53657515969511</v>
+        <v>28.68286435275485</v>
       </c>
       <c r="R2">
-        <v>-91.51132863889205</v>
+        <v>-91.51132863889008</v>
       </c>
       <c r="S2">
-        <v>149.6747068351959</v>
+        <v>150.6065564764538</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9375391802455808</v>
+        <v>1.017361100334749</v>
       </c>
       <c r="O3">
-        <v>0.8296997009410964</v>
+        <v>0.8296997009408902</v>
       </c>
       <c r="P3">
-        <v>0.8688572961474457</v>
+        <v>0.8978251364696053</v>
       </c>
       <c r="Q3">
-        <v>22.30837627642724</v>
+        <v>23.73996586607681</v>
       </c>
       <c r="R3">
-        <v>-99.17392234672846</v>
+        <v>-99.17392234672658</v>
       </c>
       <c r="S3">
-        <v>147.7835014710103</v>
+        <v>152.8633222512864</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8699546445373587</v>
+        <v>0.9805579371315731</v>
       </c>
       <c r="O4">
-        <v>0.7246674127323594</v>
+        <v>0.7246674127321109</v>
       </c>
       <c r="P4">
-        <v>0.8201110567856947</v>
+        <v>0.8928734857972074</v>
       </c>
       <c r="Q4">
-        <v>21.39807920673417</v>
+        <v>21.51590069359145</v>
       </c>
       <c r="R4">
-        <v>-97.50360857595901</v>
+        <v>-97.50360857594973</v>
       </c>
       <c r="S4">
-        <v>150.7228482726653</v>
+        <v>156.3038929472537</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.191529891745418</v>
+        <v>0.9218740491441584</v>
       </c>
       <c r="D5">
-        <v>1.124439110801036</v>
+        <v>0.9310063964262983</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.75860207493405</v>
+        <v>10.6448846086462</v>
       </c>
       <c r="G5">
-        <v>12.98390446616643</v>
+        <v>10.75033587187974</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.165999589300715</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.752802488123</v>
       </c>
       <c r="J5">
-        <v>1.779351894005638</v>
+        <v>1.779351893946735</v>
       </c>
       <c r="K5">
-        <v>3.399730879266564</v>
+        <v>3.399730879151459</v>
       </c>
       <c r="L5">
-        <v>1.779351893992582</v>
+        <v>1.779351894000969</v>
       </c>
       <c r="M5">
-        <v>3.399730879243827</v>
+        <v>3.39973087923064</v>
       </c>
       <c r="N5">
-        <v>0.8250369273897885</v>
+        <v>0.9568954759185178</v>
       </c>
       <c r="O5">
-        <v>0.6550793552710618</v>
+        <v>0.655079355270789</v>
       </c>
       <c r="P5">
-        <v>0.7889349581209016</v>
+        <v>0.8913752918996759</v>
       </c>
       <c r="Q5">
-        <v>20.70847462310719</v>
+        <v>19.9396961049423</v>
       </c>
       <c r="R5">
-        <v>-96.09329345653627</v>
+        <v>-96.09329345652053</v>
       </c>
       <c r="S5">
-        <v>152.8804881504156</v>
+        <v>158.6134408523092</v>
       </c>
       <c r="T5">
-        <v>1.391108155414494</v>
+        <v>0.0147530253623818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8474804505269403</v>
+        <v>0.9686350803482257</v>
       </c>
       <c r="O6">
-        <v>0.6898212699575315</v>
+        <v>0.6898212699572703</v>
       </c>
       <c r="P6">
-        <v>0.8043804515477034</v>
+        <v>0.8919432009878678</v>
       </c>
       <c r="Q6">
-        <v>21.06241437571038</v>
+        <v>20.7374242391045</v>
       </c>
       <c r="R6">
-        <v>-96.83401769911636</v>
+        <v>-96.83401769910402</v>
       </c>
       <c r="S6">
-        <v>151.7807630477585</v>
+        <v>157.4576971304775</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,16 +10541,16 @@
         <v>1.078847846925941</v>
       </c>
       <c r="O2">
-        <v>0.9618627255197193</v>
+        <v>0.9618627255197204</v>
       </c>
       <c r="P2">
-        <v>1.05530912685228</v>
+        <v>1.055309126852281</v>
       </c>
       <c r="Q2">
-        <v>26.46268431694228</v>
+        <v>26.46268431694231</v>
       </c>
       <c r="R2">
-        <v>-91.57079613676154</v>
+        <v>-91.57079613676152</v>
       </c>
       <c r="S2">
         <v>152.8993938557652</v>
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.058332742123209</v>
+        <v>1.058332742123208</v>
       </c>
       <c r="O3">
-        <v>0.4199934651621022</v>
+        <v>0.4199934651621063</v>
       </c>
       <c r="P3">
-        <v>0.8849458407134004</v>
+        <v>0.884945840713402</v>
       </c>
       <c r="Q3">
-        <v>10.36827052971088</v>
+        <v>10.36827052971106</v>
       </c>
       <c r="R3">
-        <v>-114.9022326535645</v>
+        <v>-114.9022326535639</v>
       </c>
       <c r="S3">
-        <v>167.570584904511</v>
+        <v>167.5705849045108</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9909306888778329</v>
+        <v>0.9909306888778322</v>
       </c>
       <c r="O4">
-        <v>0.1679973860669872</v>
+        <v>0.1679973860669934</v>
       </c>
       <c r="P4">
-        <v>0.9204173017492231</v>
+        <v>0.9204173017492242</v>
       </c>
       <c r="Q4">
-        <v>4.40962044340401</v>
+        <v>4.409620443404259</v>
       </c>
       <c r="R4">
-        <v>-114.9022326490688</v>
+        <v>-114.9022326490672</v>
       </c>
       <c r="S4">
-        <v>175.2518098001974</v>
+        <v>175.2518098001972</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,55 +10682,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390387</v>
       </c>
       <c r="D5">
-        <v>3.204231799390413</v>
+        <v>3.204231799390387</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847998</v>
       </c>
       <c r="G5">
-        <v>36.99928183848028</v>
+        <v>36.99928183847998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.691219485609527</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1164.771301271064</v>
       </c>
       <c r="J5">
-        <v>0.9743985902536769</v>
+        <v>0.974398590193591</v>
       </c>
       <c r="K5">
-        <v>3.291772033553277</v>
+        <v>3.291772033437563</v>
       </c>
       <c r="L5">
-        <v>0.9743985902604307</v>
+        <v>0.9743985902690178</v>
       </c>
       <c r="M5">
-        <v>3.291772033564869</v>
+        <v>3.291772033549514</v>
       </c>
       <c r="N5">
-        <v>0.9526279648039776</v>
+        <v>0.9526279648039768</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648057683</v>
+        <v>0.9526279648057691</v>
       </c>
       <c r="Q5">
-        <v>-1.434779169258611E-11</v>
+        <v>-1.405283785145512E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999793</v>
+        <v>-179.9999999999795</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9710601884679122</v>
+        <v>0.9710601884679114</v>
       </c>
       <c r="O6">
-        <v>0.08399869303568253</v>
+        <v>0.0839986930356893</v>
       </c>
       <c r="P6">
-        <v>0.9357190172509382</v>
+        <v>0.9357190172509391</v>
       </c>
       <c r="Q6">
-        <v>2.248283018886295</v>
+        <v>2.248283018886572</v>
       </c>
       <c r="R6">
-        <v>-114.9022326412661</v>
+        <v>-114.9022326412627</v>
       </c>
       <c r="S6">
-        <v>177.6667554660106</v>
+        <v>177.6667554660104</v>
       </c>
     </row>
   </sheetData>
